--- a/experiment_results/252750P2.xlsx
+++ b/experiment_results/252750P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B114" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4521,7 +4521,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -4671,7 +4671,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6621,7 +6621,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B409" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Shopping and Fashion', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
+          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9921,7 +9921,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B629" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['Workshops and Classes', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Workshops and Classes']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12171,7 +12171,7 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B779" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14421,7 +14421,7 @@
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B929" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P2</t>
+          <t>PRODUCTCODE: 5718P1</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the hidden gems of Austin, TX during your morning walk. Our nationally acclaimed storyteller will be your guide as you see iconic sights and hear the history of downtown Austin.</t>
+          <t>Summarized description: 2.5-hour tour (with stops) aboard a 14-passenger convertible Mercedes-Benz sprinter van. Stops include Driskill Hotel, Barton Springs, and the award-winning Austin Public Library. Route subject to change due to closures.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Austin Small Group Morning Walk</t>
+          <t>Title: Austin and Hill Country Panoramic Sightseeing Tour</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 359</t>
+          <t>TotalReviews: 237</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5718P1</t>
+          <t>PRODUCTCODE: 5718P2</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5-hour tour (with stops) aboard a 14-passenger convertible Mercedes-Benz sprinter van. Stops include Driskill Hotel, Barton Springs, and the award-winning Austin Public Library. Route subject to change due to closures.</t>
+          <t>Summarized description: This small-group tour (14 passenger max) is the one to do if you want a comprehensive look at what makes this city what it is. Possible stops (only two from this list)-TX State Cemetery, the Austin Central Library, and the Pfluger bridge.</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>Title: Austin and Hill Country Panoramic Sightseeing Tour</t>
+          <t xml:space="preserve">Title: Downtown Austin Small-Group Panoramic Sightseeing Tour </t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>TotalReviews: 237</t>
+          <t>TotalReviews: 78</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P12</t>
+          <t>PRODUCTCODE: 19328P6</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation offers its 2.5 hour Ghost and Bat Segway tour once daily. Bats are seasonal and usually fly from March to October every year. We visit some of Austin's haunted downtown hotels and buildings.</t>
+          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>Title: Austin Famous Ghost and Bat Segway Tour</t>
+          <t>Title: Weird Austin City Tour</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>TotalReviews: 142</t>
+          <t>TotalReviews: 56</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 153655P2</t>
+          <t>PRODUCTCODE: 5682P10</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Summarized description: Lake Austin offers 22 miles of great sightseeing views, including privately-owned waterfront and cliffside homes and popular shoreside restaurants. You may even catch sight of Austin's own professional wake surfing phenoms Ashley Kidd and Raleigh Hager!</t>
+          <t>Summarized description: Segway Nation's 2 hour Historic Downtown Austin Segway tour is offered once daily. Tour explores many of Austin’s historic landmarks, brilliant modern skyscrapers, the Texas state capitol building, and other historic and interesting buildings throughout downtown.</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>Title: Austin Boat Tour with Full Sun Shading Available</t>
+          <t>Title: Downtown Austin Historic Segway Tour</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>TotalReviews: 122</t>
+          <t>TotalReviews: 45</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16592P2</t>
+          <t>PRODUCTCODE: 6462BATSEG</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Summarized description: Our flagship tour covers a bit of everything about downtown Austin. Pedal through historic districts and dive into the art and history of Texas’ capital city. Enjoy highlights such as: Lady bird lake, Texas State Capitol, the Congress Bridge.</t>
+          <t>Summarized description: Segway tours of Austin are a great way to explore the city. Take a Segway tour of the city and stop for dinner along the way.</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>Title: Austin Icons Bicycle Tour</t>
+          <t>Title: Bat Bridge Segway Tour</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>TotalReviews: 89</t>
+          <t>TotalReviews: 29</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P3</t>
+          <t>PRODUCTCODE: 5682P16</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tours include historical and cultural information about Austin. All groups start off with an orientation followed by one segway rider training. Choose from 3 departure times throughout the day, each one with a slightly different focus.</t>
+          <t>Summarized description: Nation Tour’s famous Capital City E-Scooter Tour begins on the West side of Austin. After cruising through downtown, your E- scooter adventure arrives at Lady Bird Lake.</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: E-Scooter Tour of Austin</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 28</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244340P1</t>
+          <t>PRODUCTCODE: 10428P11</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Summarized description: The Lake Austin cruise takes off from the Loop 360 Boat Ramp located below the southern end of Pennybacker Bridge over Lake Austin. The three-acre park is primarily used for lake access, but offers a grassy area for picnicking.</t>
+          <t>Summarized description: Art is quickly becoming as famous as music in Austin. In 2 hours you'll go all around the city discovering major murals, rare art installations, and so much more. Get your phone/camera ready, this tour shows you the most Instagram-able sites in Austin!</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>Title: Small-Group Public BYOB Sunset Boat Tour on Lake Austin</t>
+          <t>Title: Downtown Austin Street Art Tour by Bus</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>TotalReviews: 65</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P4</t>
+          <t>PRODUCTCODE: 5920AUSTIN</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: 2 hour guided Segway tour showcases Austin's top destinations. Stop at Austin's newly built $125M DT public library w/ amazing 360º city views.</t>
+          <t>Summarized description: Stay on the bus for the whole route, or jump off and on at any of the six stops. The bus route starts at the Texas State Capitol three times a day at 2-hour intervals.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Capital of Texas Segway Tour</t>
+          <t>Title: Austin Hop-On Hop-Off Tour</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 63</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P10</t>
+          <t>PRODUCTCODE: 380918P1</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation's 2 hour Historic Downtown Austin Segway tour is offered once daily. Tour explores many of Austin’s historic landmarks, brilliant modern skyscrapers, the Texas state capitol building, and other historic and interesting buildings throughout downtown.</t>
+          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Historic Segway Tour</t>
+          <t>Title: Austin Half-day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462BATSEG</t>
+          <t>PRODUCTCODE: 74447P1</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tours of Austin are a great way to explore the city. Take a Segway tour of the city and stop for dinner along the way.</t>
+          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Bat Bridge Segway Tour</t>
+          <t>Title: Keep Austin Weird Segway Tour</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P17</t>
+          <t>PRODUCTCODE: 6462P30</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Austin's official breakfast is the breakfast taco. Taste-testing your way through inventive tacos and to-die-for queso is a must. Cruise between locations in a comfortable air-conditioned Mercedes Sprinter van.</t>
+          <t>Summarized description: Segway tour of Austin, Texas. 2 hour trip through the streets and walks of the city. Learn about trending hot-spots and views of Austin's architectural marvels.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Austin Breakfast Taco Tour</t>
+          <t>Title: Afternoon in Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P5</t>
+          <t>PRODUCTCODE: 251967P2</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
+          <t>Summarized description: Learn all about Austin’s rich history as we guide you through some of the most sought-after locations. With the availability to hop-on and hop-off you can take your time and explore the various districts of the city at your leisure.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Food Is My Best Friend Tour in Austin</t>
+          <t xml:space="preserve">Title: 48-Hour Austin Hop-On Hop-Off Blue Line City Tour </t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7635P1</t>
+          <t>PRODUCTCODE: 380918P6</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
+          <t>Summarized description: This tour stops at multiple locations for photos, such as the Greeting From Austin Mural. This tour is excellent for small groups that wish to get the best Austin sightseeing experience possible.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
+          <t>Title: Private Austin Sightseer Tour</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P1</t>
+          <t>PRODUCTCODE: 51066P2</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: See the heart of Austin through a locals eyes on some of the finest urban bike trails in the country. Stop at some of Austin’s most famous landmarks: Barton Springs, the Stevie Ray Vaughan Statue, the Congress Avenue “Bat Bridge,” and more.</t>
+          <t>Summarized description: Glance of Austin City Tour is a 3-hour tour of downtown Austin. Take an open-air electric shuttle from your hotel/accommodation to the tour site.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Austin E-Bike Tour</t>
+          <t>Title: Glance of Austin City Tour</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P4</t>
+          <t>PRODUCTCODE: 324527P1</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides know where the best spots are and you will get to see a lot of Austin along the way. Let the guide know if there is a place you might have heard of and is on your bucket list to go to.</t>
+          <t>Summarized description: Enjoy a personalized Tour of Austin and surrounding Hill Country with up to 14 guests. We have some great spots we know you'll love or we can plan a unique trip just for you. Great for a bachelor/ettes party’s or can be a site seeing family trip!</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Brunch Tour </t>
+          <t>Title: Personalized Tour of Austin and Surrounding Hill Country</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 206329P1</t>
+          <t>PRODUCTCODE: 74447P9</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: The Austin Electric Adventure Tour takes you on an electric mini-bike tour of the city. The tour will explore South Congress, The "Willie for President" Mural, and the "i love you so much" mural.</t>
+          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Austin Electric Minibike Adventure Tour</t>
+          <t>Title: Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P2</t>
+          <t>PRODUCTCODE: 19328P1</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and culture of Austin as we walk through downtown. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more.</t>
+          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Tipster Pay-What-You-Want Downtown Austin Walking Tour</t>
+          <t>Title: Complete Austin Experience City Tour</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 406074P1</t>
+          <t>PRODUCTCODE: 380918P2</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: This 2.5 hour kayaking trip through downtown is magical. We start by paddling the length of the Austin skyline during the golden hour. We then get into position for the best bat viewing and give a speech.</t>
+          <t>Summarized description: Explore Austin on an easy-to-operate e-bike on this city overview tour. Your guide will take about five breaks at unique locations for a quick photo. Pass by over 20 points of interest as you learn fun stories about the city.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Sunset Kayak Tour with 1.5 Million Bats</t>
+          <t>Title: Best of Austin Ebike Tour</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P2</t>
+          <t>PRODUCTCODE: 251967P1</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
+          <t>Summarized description: Learn all about Austin’s rich history as we guide you through some of the most sought-after locations. With the availability to hop-on and hop-off you can take your time and explore the various districts of the city at your leisure.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: The Ultimate Austin Segway Tour</t>
+          <t>Title: 24-Hour Hop-On Hop-Off Blue Line Pass in Austin</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P1</t>
+          <t>PRODUCTCODE: 5682AUSCITY</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
+          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Austin Half-day Sightseeing Tour</t>
+          <t>Title: Austin Sightseeing Segway Tour</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P30</t>
+          <t>PRODUCTCODE: 16592P5</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour of Austin, Texas. 2 hour trip through the streets and walks of the city. Learn about trending hot-spots and views of Austin's architectural marvels.</t>
+          <t>Summarized description: Austin has more than 250 live music venues and thousands of acts to fill them. Join a tour that explores the places that helped Austin make its name. Take in a local show and learn how the city evolved from the sleepy college town and capital of Texas.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Afternoon in Austin Segway Tour</t>
+          <t>Title: Austin-Music Bicycle Tour</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Modern Attractions', 'City Tours']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 57338P13</t>
+          <t>PRODUCTCODE: 5663LAKE</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is known as the 'Music Capital of the World' Stroll along the iconic and legendary venues that have launched countless musical careers. From blues to country, rock to indie, every step unveils the unique sounds and stories.</t>
+          <t>Summarized description: Electric bikes are a fun, comfortable, safe way to sightsee in Austin. Follow your guide to the lake’s main landmarks including Barton Springs and the Stevie Ray Vaughn Statue.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: The Downtown Austin Music History Walking Tour</t>
+          <t>Title: Electric Bike Tour of Lady Bird Lake in Austin</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 54414P6</t>
+          <t>PRODUCTCODE: 74447P10</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: The AR Adventure Austin fantasy-based augmented-reality experience for 5-5,000 players. The AR technology allows you to immerse yourself in the city as you solve riddles and puzzles with the equipment we provide for you.</t>
+          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Austin Haunted History Adventure</t>
+          <t>Title: Beat the Heat Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 157133P12</t>
+          <t>PRODUCTCODE: 87115P25</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the diverse and creative community of Austin’s East Side. Sample a variety of delicious food from local establishments serving farm-to-table fare. Visit the Texas State Cemetery, home to the graves of Stephan F. Austin, “American Sniper” Chris Kyle, and more.</t>
+          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: East Austin Food Tour</t>
+          <t>Title: Guided Tour of Austin's Highlights</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P52</t>
+          <t>PRODUCTCODE: 187190P2</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Taste the best BBQ that Austin has to offer on our Austin Red River Street BBQ Food Walking Tour. Not only will you get to sample delicious barbecue, you will also witness many must-see places throughout The Red River Cultural District.</t>
+          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Small Group Austin Red River Street BBQ Food Walking Tour</t>
+          <t>Title: Best Signseeing of Austin</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 278147P2</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Lake Austin is home to celebrity homes, one of the best party coves in Texas, as well as the iconic Pennybacker bridge. Our Lake Austin Charter boat service picks up customers at the iconic 360-bridge boat ramp, which is a short 15-minute drive from downtown Austin.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Half Day Lake Austin Boat Tour</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Water Sports']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 251967P2</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Learn all about Austin’s rich history as we guide you through some of the most sought-after locations. With the availability to hop-on and hop-off you can take your time and explore the various districts of the city at your leisure.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: 48-Hour Austin Hop-On Hop-Off Blue Line City Tour </t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6468KAYAK</t>
+          <t>PRODUCTCODE: 187194P2</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Austin is home to the largest urban colony of bats in North America. Kayak to Congress Ave Bridge from Lady Bird Lake. Small-group tour limited to 15 people.</t>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Bat Bridge Kayak Tour in Austin</t>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports']</t>
+          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 13625P1</t>
+          <t>PRODUCTCODE: 6462P4</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Urban / Natural combo bike tour of 7.5 miles. Get acquainted with Austin sights like the Congress Ave Bat Bridge, Texas Capitol, Shoal Creek hike-n-bike trail, Pfluger Ped/bike Bridge.</t>
+          <t>Summarized description: Glide alongside Austin's beautiful Lady Bird Lake on this 90-minute segway tour. You'll see locals jogging, some enthusiastic kayakers, and interesting birds.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Check Out Austin: Capitol Bike Tour</t>
+          <t>Title: Lady Bird Lake Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 104585P1</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P2</t>
+          <t>PRODUCTCODE: 5682AUSHIS</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Segways are the way to go in the hot Austin months leaving parking hassles behind. We'll take you to the back/local entrance to skip the line to get in. Entry into pools is included.</t>
+          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Austin Parks and Rec Segway Tour</t>
+          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 307607P4</t>
+          <t>PRODUCTCODE: 5682AUSDOWN</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Paddle along the picturesque waters of the Colorado River, exploring Austin's urban landscape. As the sun sets, we'll navigate beneath the Congress Avenue Bridge, home to one of North America's largest urban bat colonies.</t>
+          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Sunset Guided Congress Avenue Bat Kayaking Tour in Austin</t>
+          <t>Title: Downtown Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Water Sports']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 19328P1</t>
+          <t>PRODUCTCODE: 74447P11</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
+          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Complete Austin Experience City Tour</t>
+          <t>Title: Segway Bat Tour in Austin</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P10</t>
+          <t>PRODUCTCODE: 74447P3</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the unique history and culture of Austin over craft cocktails with a local guide. Pick your guide's brain about Austin’s history, music, art, and must-see attractions.</t>
+          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Tipster Austin Craft Cocktails Private Walking Tour</t>
+          <t>Title: Segway Dinner Tour in Austin</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P2</t>
+          <t>PRODUCTCODE: 186429P1</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Austin on an easy-to-operate e-bike on this city overview tour. Your guide will take about five breaks at unique locations for a quick photo. Pass by over 20 points of interest as you learn fun stories about the city.</t>
+          <t>Summarized description: The 2.5-hour Segway tour is offered from March to October. See the Texas State Capitol Building, Lady Bird Lake, Austin Convention Center, and more. Hear the ghostly tales behind Austin's historic buildings and famous landmarks.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Best of Austin Ebike Tour</t>
+          <t>Title: Our Austin's Ghost and Bat By Segwaying</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P7</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17629,1431 +17629,6 @@
       <c r="H1142" t="inlineStr"/>
       <c r="I1142" t="inlineStr"/>
     </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr"/>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr"/>
-      <c r="H1143" t="inlineStr"/>
-      <c r="I1143" t="inlineStr"/>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr"/>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr"/>
-      <c r="H1144" t="inlineStr"/>
-      <c r="I1144" t="inlineStr"/>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr"/>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr"/>
-      <c r="H1145" t="inlineStr"/>
-      <c r="I1145" t="inlineStr"/>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr"/>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr"/>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr"/>
-      <c r="H1146" t="inlineStr"/>
-      <c r="I1146" t="inlineStr"/>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P4</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr"/>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr"/>
-      <c r="H1147" t="inlineStr"/>
-      <c r="I1147" t="inlineStr"/>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
-      <c r="H1148" t="inlineStr"/>
-      <c r="I1148" t="inlineStr"/>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>Title: Historic Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr"/>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr"/>
-      <c r="H1149" t="inlineStr"/>
-      <c r="I1149" t="inlineStr"/>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr"/>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr"/>
-      <c r="H1150" t="inlineStr"/>
-      <c r="I1150" t="inlineStr"/>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr"/>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr"/>
-      <c r="H1151" t="inlineStr"/>
-      <c r="I1151" t="inlineStr"/>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P29</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr"/>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr"/>
-      <c r="H1152" t="inlineStr"/>
-      <c r="I1152" t="inlineStr"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>Summarized description: Your adventure will include you riding a Segway taking in historical information about Austin. You will also visit some amazing highlights of the city. The tour will end with a tour of some of Austin's most famous landmarks.</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr"/>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr"/>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr"/>
-      <c r="H1153" t="inlineStr"/>
-      <c r="I1153" t="inlineStr"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>Title: Good Morning Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr"/>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr"/>
-      <c r="H1154" t="inlineStr"/>
-      <c r="I1154" t="inlineStr"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr"/>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr"/>
-      <c r="H1155" t="inlineStr"/>
-      <c r="I1155" t="inlineStr"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr"/>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr"/>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr"/>
-      <c r="H1156" t="inlineStr"/>
-      <c r="I1156" t="inlineStr"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P8</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr"/>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
-      <c r="H1157" t="inlineStr"/>
-      <c r="I1157" t="inlineStr"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr"/>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr"/>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
-      <c r="H1158" t="inlineStr"/>
-      <c r="I1158" t="inlineStr"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>Title: Ultimate Segway Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr"/>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr"/>
-      <c r="H1159" t="inlineStr"/>
-      <c r="I1159" t="inlineStr"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr"/>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
-      <c r="H1160" t="inlineStr"/>
-      <c r="I1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-      <c r="H1161" t="inlineStr"/>
-      <c r="I1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5682AUSCITY</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr"/>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr"/>
-      <c r="H1162" t="inlineStr"/>
-      <c r="I1162" t="inlineStr"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr"/>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr"/>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr"/>
-      <c r="H1163" t="inlineStr"/>
-      <c r="I1163" t="inlineStr"/>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>Title: Austin Sightseeing Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr"/>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr"/>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr"/>
-      <c r="H1164" t="inlineStr"/>
-      <c r="I1164" t="inlineStr"/>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
-      <c r="I1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
-      <c r="H1166" t="inlineStr"/>
-      <c r="I1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 16592P5</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
-      <c r="H1167" t="inlineStr"/>
-      <c r="I1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has more than 250 live music venues and thousands of acts to fill them. Join a tour that explores the places that helped Austin make its name. Take in a local show and learn how the city evolved from the sleepy college town and capital of Texas.</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr"/>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
-      <c r="H1168" t="inlineStr"/>
-      <c r="I1168" t="inlineStr"/>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>Title: Austin-Music Bicycle Tour</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr"/>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
-      <c r="H1169" t="inlineStr"/>
-      <c r="I1169" t="inlineStr"/>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr"/>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
-      <c r="H1170" t="inlineStr"/>
-      <c r="I1170" t="inlineStr"/>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
-      <c r="I1171" t="inlineStr"/>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 212799P6</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
-      <c r="I1172" t="inlineStr"/>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has more live music venues per capita than any other city in the nation. Learn more about how Austin earned the title of Live Music Capital of the World.</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-      <c r="H1173" t="inlineStr"/>
-      <c r="I1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>Title: Tipster Pay-What-You-Want Austin Music Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
-      <c r="I1174" t="inlineStr"/>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
-      <c r="I1175" t="inlineStr"/>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>Category: ['Performing Arts']</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr"/>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
-      <c r="H1176" t="inlineStr"/>
-      <c r="I1176" t="inlineStr"/>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5663LAKE</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr"/>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
-      <c r="H1177" t="inlineStr"/>
-      <c r="I1177" t="inlineStr"/>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>Summarized description: Electric bikes are a fun, comfortable, safe way to sightsee in Austin. Follow your guide to the lake’s main landmarks including Barton Springs and the Stevie Ray Vaughn Statue.</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
-      <c r="H1178" t="inlineStr"/>
-      <c r="I1178" t="inlineStr"/>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>Title: Electric Bike Tour of Lady Bird Lake in Austin</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
-      <c r="H1179" t="inlineStr"/>
-      <c r="I1179" t="inlineStr"/>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr"/>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr"/>
-      <c r="H1180" t="inlineStr"/>
-      <c r="I1180" t="inlineStr"/>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr"/>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
-      <c r="H1181" t="inlineStr"/>
-      <c r="I1181" t="inlineStr"/>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5663MUSIC</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
-      <c r="I1182" t="inlineStr"/>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Summarized description: Follow a local musician around Austin to discover why this city’s touted as the ‘Live Music Capital of the World’ Ride past renowned music venues including the Continental Club and Victory Grill. Then, on a rooftop deck overlooking Lady Bird Lake and downtown Austin, you’ll be treated to a live musical performance while admiring a gorgeous sunset.</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-      <c r="H1183" t="inlineStr"/>
-      <c r="I1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>Title: Austin Live Music and Electric Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr"/>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
-      <c r="H1184" t="inlineStr"/>
-      <c r="I1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr"/>
-      <c r="I1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>Category: ['Performing Arts', 'City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr"/>
-      <c r="I1186" t="inlineStr"/>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P10</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr"/>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr"/>
-      <c r="I1187" t="inlineStr"/>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Title: Beat the Heat Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr"/>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr"/>
-      <c r="I1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 42365P5</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr"/>
-      <c r="I1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>Summarized description: This is the ONLY Revel Moped tour in the world! The ONLY tour in Austin that takes you to Mount Bonnell and its breath taking views of the city. Learn of the cultural standouts and what makes Austin such a rich and diverse city! All while being propelled on a Revel Electric Moped!</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr"/>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr"/>
-      <c r="I1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>Title: Revel Moped Tour Mt Bonnell and Neighborhoods of Austin</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
-      <c r="H1195" t="inlineStr"/>
-      <c r="I1195" t="inlineStr"/>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
-      <c r="I1196" t="inlineStr"/>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 180366P2</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
-      <c r="I1197" t="inlineStr"/>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin, Texas, prides itself on its weirdness. On this tour, you'll encounter the weird of the paranormal sort. Along the way, you can sample spirits of the drinking kind. Alcohol is not included in the price of the tour.</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr"/>
-      <c r="I1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>Title: Austin Boos and Booze Haunted Pub Crawl</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr"/>
-      <c r="I1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-      <c r="I1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr"/>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr"/>
-      <c r="I1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P4</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr"/>
-      <c r="I1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Summarized description: Glide alongside Austin's beautiful Lady Bird Lake on this 90-minute segway tour. You'll see locals jogging, some enthusiastic kayakers, and interesting birds.</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>Title: Lady Bird Lake Segway Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
-      <c r="I1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
-      <c r="I1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-      <c r="I1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 281487P40</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr"/>
-      <c r="I1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Summarized description: Delve into the happening Austin streets and feel the uniquely Austin character of its one-of-a-kind downtown. Explore at your own pace feel Austin's distinct southern spirit and take in its charm.</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr"/>
-      <c r="I1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>Title: Austin Scavenger Hunt Walking Tour and Game</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr"/>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr"/>
-      <c r="I1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr"/>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr"/>
-      <c r="I1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr"/>
-      <c r="I1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 90519P8</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
-      <c r="I1212" t="inlineStr"/>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr"/>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr"/>
-      <c r="I1213" t="inlineStr"/>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>Title: Austin Private Tour</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr"/>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr"/>
-      <c r="I1214" t="inlineStr"/>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr"/>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr"/>
-      <c r="I1215" t="inlineStr"/>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Category: ['Hiking', 'Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr"/>
-      <c r="I1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 214718P2</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr"/>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr"/>
-      <c r="I1217" t="inlineStr"/>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr"/>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr"/>
-      <c r="I1218" t="inlineStr"/>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr"/>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr"/>
-      <c r="I1219" t="inlineStr"/>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr"/>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr"/>
-      <c r="I1220" t="inlineStr"/>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr"/>
-      <c r="I1221" t="inlineStr"/>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 356901P1</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr"/>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr"/>
-      <c r="I1222" t="inlineStr"/>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr"/>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr"/>
-      <c r="I1223" t="inlineStr"/>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>Title: The Best of Austin Private Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr"/>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr"/>
-      <c r="I1224" t="inlineStr"/>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr"/>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr"/>
-      <c r="I1225" t="inlineStr"/>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Category: ['Cultural Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
-      <c r="I1226" t="inlineStr"/>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462ELBIKE</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
-      <c r="I1227" t="inlineStr"/>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a 2.5-hour ride through the city on an electric bike. See the Austin Convention Center, Driskill Hotel, and Texas State Capitol Building.</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
-      <c r="I1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>Title: Austin Electric Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr"/>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
-      <c r="H1229" t="inlineStr"/>
-      <c r="I1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr"/>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr"/>
-      <c r="I1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-      <c r="I1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5682AUSDOWN</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr"/>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
-      <c r="H1232" t="inlineStr"/>
-      <c r="I1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr"/>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr"/>
-      <c r="I1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>Title: Downtown Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr"/>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr"/>
-      <c r="I1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr"/>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr"/>
-      <c r="I1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr"/>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr"/>
-      <c r="I1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr"/>
-      <c r="I1237" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/252750P2.xlsx
+++ b/experiment_results/252750P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +846,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -1371,7 +1371,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B169" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3921,7 +3921,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Dining Experiences', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4371,7 +4371,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -6021,7 +6021,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6321,7 +6321,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7296,7 +7296,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Category: ['Aerial Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Aerial Tours']</t>
         </is>
       </c>
       <c r="B454" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8796,7 +8796,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B554" t="inlineStr"/>
@@ -8871,7 +8871,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B559" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Performing Arts']</t>
+          <t>Category: ['City Tours', 'Entertainment', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11496,7 +11496,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B734" t="inlineStr"/>
@@ -12096,7 +12096,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B774" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13221,7 +13221,7 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B849" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Scenic Tours', 'Water Sports', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13821,7 +13821,7 @@
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B889" t="inlineStr"/>
@@ -13971,7 +13971,7 @@
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16592P5</t>
+          <t>PRODUCTCODE: 74447P10</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has more than 250 live music venues and thousands of acts to fill them. Join a tour that explores the places that helped Austin make its name. Take in a local show and learn how the city evolved from the sleepy college town and capital of Texas.</t>
+          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Austin-Music Bicycle Tour</t>
+          <t>Title: Beat the Heat Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5663LAKE</t>
+          <t>PRODUCTCODE: 87115P25</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Electric bikes are a fun, comfortable, safe way to sightsee in Austin. Follow your guide to the lake’s main landmarks including Barton Springs and the Stevie Ray Vaughn Statue.</t>
+          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Electric Bike Tour of Lady Bird Lake in Austin</t>
+          <t>Title: Guided Tour of Austin's Highlights</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P10</t>
+          <t>PRODUCTCODE: 187190P2</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Take our Beat the Heat Austin Segway Tour! Ride a Segway around our beautiful city before the heat and crowd shows up. Looking to get ahead of the Texas heat, but still see what Austin has to offer?</t>
+          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Beat the Heat Austin Segway Tour</t>
+          <t>Title: Best Signseeing of Austin</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P25</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Guided Tour of Austin's Highlights</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 187190P2</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Best Signseeing of Austin</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P1626</t>
+          <t>PRODUCTCODE: 187194P2</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P77</t>
+          <t>PRODUCTCODE: 6462P4</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
+          <t>Summarized description: Glide alongside Austin's beautiful Lady Bird Lake on this 90-minute segway tour. You'll see locals jogging, some enthusiastic kayakers, and interesting birds.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
+          <t>Title: Lady Bird Lake Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 187194P2</t>
+          <t>PRODUCTCODE: 5682AUSHIS</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
+          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: City Tour: Austin Capitol By Segway</t>
+          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P4</t>
+          <t>PRODUCTCODE: 5682AUSDOWN</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Glide alongside Austin's beautiful Lady Bird Lake on this 90-minute segway tour. You'll see locals jogging, some enthusiastic kayakers, and interesting birds.</t>
+          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Lady Bird Lake Segway Tour in Austin</t>
+          <t>Title: Downtown Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90519P8</t>
+          <t>PRODUCTCODE: 74447P11</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
+          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Austin Private Tour</t>
+          <t>Title: Segway Bat Tour in Austin</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSHIS</t>
+          <t>PRODUCTCODE: 74447P3</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
+          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
+          <t>Title: Segway Dinner Tour in Austin</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682AUSDOWN</t>
+          <t>PRODUCTCODE: 186429P1</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
+          <t>Summarized description: The 2.5-hour Segway tour is offered from March to October. See the Texas State Capitol Building, Lady Bird Lake, Austin Convention Center, and more. Hear the ghostly tales behind Austin's historic buildings and famous landmarks.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Segway Tour</t>
+          <t>Title: Our Austin's Ghost and Bat By Segwaying</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P11</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17404,231 +17404,6 @@
       <c r="H1127" t="inlineStr"/>
       <c r="I1127" t="inlineStr"/>
     </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr"/>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr"/>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr"/>
-      <c r="G1128" t="inlineStr"/>
-      <c r="H1128" t="inlineStr"/>
-      <c r="I1128" t="inlineStr"/>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>Title: Segway Bat Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr"/>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr"/>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr"/>
-      <c r="H1129" t="inlineStr"/>
-      <c r="I1129" t="inlineStr"/>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr"/>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr"/>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr"/>
-      <c r="H1130" t="inlineStr"/>
-      <c r="I1130" t="inlineStr"/>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr"/>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr"/>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr"/>
-      <c r="H1131" t="inlineStr"/>
-      <c r="I1131" t="inlineStr"/>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P3</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr"/>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr"/>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr"/>
-      <c r="H1132" t="inlineStr"/>
-      <c r="I1132" t="inlineStr"/>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr"/>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr"/>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr"/>
-      <c r="H1133" t="inlineStr"/>
-      <c r="I1133" t="inlineStr"/>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>Title: Segway Dinner Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr"/>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr"/>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr"/>
-      <c r="H1134" t="inlineStr"/>
-      <c r="I1134" t="inlineStr"/>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr"/>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr"/>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr"/>
-      <c r="H1135" t="inlineStr"/>
-      <c r="I1135" t="inlineStr"/>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr"/>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr"/>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr"/>
-      <c r="H1136" t="inlineStr"/>
-      <c r="I1136" t="inlineStr"/>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 186429P1</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-      <c r="H1137" t="inlineStr"/>
-      <c r="I1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>Summarized description: The 2.5-hour Segway tour is offered from March to October. See the Texas State Capitol Building, Lady Bird Lake, Austin Convention Center, and more. Hear the ghostly tales behind Austin's historic buildings and famous landmarks.</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr"/>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr"/>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr"/>
-      <c r="H1138" t="inlineStr"/>
-      <c r="I1138" t="inlineStr"/>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>Title: Our Austin's Ghost and Bat By Segwaying</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr"/>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr"/>
-      <c r="H1139" t="inlineStr"/>
-      <c r="I1139" t="inlineStr"/>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr"/>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
-      <c r="H1140" t="inlineStr"/>
-      <c r="I1140" t="inlineStr"/>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr"/>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr"/>
-      <c r="H1141" t="inlineStr"/>
-      <c r="I1141" t="inlineStr"/>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr"/>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr"/>
-      <c r="H1142" t="inlineStr"/>
-      <c r="I1142" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/252750P2.xlsx
+++ b/experiment_results/252750P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1384"/>
+  <dimension ref="A1:I1164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +801,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -876,7 +876,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1326,7 +1326,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1476,7 +1476,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -3126,7 +3126,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -3951,7 +3951,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -6726,7 +6726,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B416" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -7326,7 +7326,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Performing Arts']</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -8376,7 +8376,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -9051,7 +9051,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B571" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -10101,7 +10101,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B641" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B651" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10401,7 +10401,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B661" t="inlineStr"/>
@@ -10476,7 +10476,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B666" t="inlineStr"/>
@@ -11151,7 +11151,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Category: ['Performing Arts', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Performing Arts', 'Entertainment']</t>
         </is>
       </c>
       <c r="B711" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11451,7 +11451,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B731" t="inlineStr"/>
@@ -11751,7 +11751,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -12201,7 +12201,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -12501,7 +12501,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12876,7 +12876,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13101,7 +13101,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
@@ -13551,7 +13551,7 @@
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B871" t="inlineStr"/>
@@ -13626,7 +13626,7 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Water Sports', 'Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B876" t="inlineStr"/>
@@ -13926,7 +13926,7 @@
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B896" t="inlineStr"/>
@@ -14376,7 +14376,7 @@
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Dining Experiences']</t>
+          <t>Category: ['Dining Experiences', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B926" t="inlineStr"/>
@@ -14451,7 +14451,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14826,7 +14826,7 @@
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B956" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5718CITY</t>
+          <t>PRODUCTCODE: 10428P1</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>Summarized description: This signature Austin tour covers 30 miles, 50+ points of interest, in 90 minutes (1.5 hours) Non-STOP. You'll get to see iconic places such as the Texas Capitol.</t>
+          <t>Summarized description: Austin's favorite "bucket list tour" offers an excellent city overview in just 2 hours. Visit major landmarks, lesser-known gems that only a local would know about, real neighborhoods, and even a sweet treat.</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Title: Austin and Hill Country Sightseeing Tour</t>
+          <t>Title: Best of Austin Small-Group Driving Tour with Local Guide</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>TotalReviews: 814</t>
+          <t>TotalReviews: 1951</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P2</t>
+          <t>PRODUCTCODE: 5718CITY</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the hidden gems of Austin, TX during your morning walk. Our nationally acclaimed storyteller will be your guide as you see iconic sights and hear the history of downtown Austin.</t>
+          <t>Summarized description: This signature Austin tour covers 30 miles, 50+ points of interest, in 90 minutes (1.5 hours) Non-STOP. You'll get to see iconic places such as the Texas Capitol.</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Title: Austin Small Group Morning Walk</t>
+          <t>Title: Austin and Hill Country Sightseeing Tour</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>TotalReviews: 359</t>
+          <t>TotalReviews: 814</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P3</t>
+          <t>PRODUCTCODE: 5718P1</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>Summarized description: This tour is our longest at 1 hour 45 minutes and covers 2 miles of historic Austin including West 6th street, Guy Town, the Warehouse District and a drink stop at the iconic Driskill Hotel. Voted by the Austin Chronicle 2022 Critic's Choice "Best Nightlife Activity."</t>
+          <t>Summarized description: 2.5-hour tour (with stops) aboard a 14-passenger convertible Mercedes-Benz sprinter van. Stops include Driskill Hotel, Barton Springs, and the award-winning Austin Public Library. Route subject to change due to closures.</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin Murder Walk </t>
+          <t>Title: Austin and Hill Country Panoramic Sightseeing Tour</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15067,7 +15067,7 @@
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>TotalReviews: 252</t>
+          <t>TotalReviews: 237</t>
         </is>
       </c>
       <c r="B972" t="inlineStr"/>
@@ -15082,7 +15082,7 @@
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B973" t="inlineStr"/>
@@ -15097,7 +15097,7 @@
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 387557P2</t>
+          <t>PRODUCTCODE: 5682P11</t>
         </is>
       </c>
       <c r="B974" t="inlineStr"/>
@@ -15112,7 +15112,7 @@
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>Summarized description: Take a walk through the story of Austin, beginning and ending in what was once a roaring red light district. Along the way, we'll explore the rich history of Austin and discover how it became the vibrant and dynamic city it is today.</t>
+          <t>Summarized description: Segway Nation offers its 1.5 hour Austin Sightseeing and Capitol Segway Tour three times daily. Highlights of the tour include the Texas State Capitol Building and Congress Avenue.</t>
         </is>
       </c>
       <c r="B975" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: The Story of Austin: Downtown History Walking Tour </t>
+          <t>Title: Austin Sightseeing and Capitol Segway Tour</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15142,7 +15142,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>TotalReviews: 85</t>
+          <t>TotalReviews: 216</t>
         </is>
       </c>
       <c r="B977" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15172,7 +15172,7 @@
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16592P6</t>
+          <t>PRODUCTCODE: 5718P2</t>
         </is>
       </c>
       <c r="B979" t="inlineStr"/>
@@ -15187,7 +15187,7 @@
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>Summarized description: Austin has long held a reputation for being a city of innovative creators. You'll learn some history, see some beautiful work, and have a great time riding your bike. Highlights include: the tallest mural in Austin, historic West Austin buildings, the OBEY Giantess, and the Texas capitol building.</t>
+          <t>Summarized description: This small-group tour (14 passenger max) is the one to do if you want a comprehensive look at what makes this city what it is. Possible stops (only two from this list)-TX State Cemetery, the Austin Central Library, and the Pfluger bridge.</t>
         </is>
       </c>
       <c r="B980" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Title: Austin Art and Architecture Bicycle Tour</t>
+          <t xml:space="preserve">Title: Downtown Austin Small-Group Panoramic Sightseeing Tour </t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15217,7 +15217,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>TotalReviews: 73</t>
+          <t>TotalReviews: 78</t>
         </is>
       </c>
       <c r="B982" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P3</t>
+          <t>PRODUCTCODE: 19328P6</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tours include historical and cultural information about Austin. All groups start off with an orientation followed by one segway rider training. Choose from 3 departure times throughout the day, each one with a slightly different focus.</t>
+          <t>Summarized description: The Weird Austin City Tour takes you on a tour of the Texas city. Find out how the city got its "weird" reputation. Take in live music, food trucks, and more.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Weird Austin City Tour</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 56</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15322,7 +15322,7 @@
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 46479P9</t>
+          <t>PRODUCTCODE: 5682P10</t>
         </is>
       </c>
       <c r="B989" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>Summarized description: Lady Bird Lake is home to some of the best views of the architectural marvels of Austin buildings and landmarks. Join us on a guided Eco tour of the beautiful Lady Bird Lake.</t>
+          <t>Summarized description: Segway Nation's 2 hour Historic Downtown Austin Segway tour is offered once daily. Tour explores many of Austin’s historic landmarks, brilliant modern skyscrapers, the Texas state capitol building, and other historic and interesting buildings throughout downtown.</t>
         </is>
       </c>
       <c r="B990" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Title: Austin Skyline Kayak Tour</t>
+          <t>Title: Downtown Austin Historic Segway Tour</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>TotalReviews: 70</t>
+          <t>TotalReviews: 45</t>
         </is>
       </c>
       <c r="B992" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15397,7 +15397,7 @@
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 56929P2</t>
+          <t>PRODUCTCODE: 87115P27</t>
         </is>
       </c>
       <c r="B994" t="inlineStr"/>
@@ -15412,7 +15412,7 @@
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>Summarized description: This tour can accommodate up to 40 guests. Meet your guide at the Austin Visitor Center. Feel free to bring your own beer/drinks/snacks; coolers and ice will be provided.</t>
+          <t>Summarized description: The Best of Austin Small Group Tour by See Sight Tours is a truly unique experience that showcases the best that Austin has to offer. With a maximum of only 7 guests per tour, you'll enjoy a personalized and intimate experience.</t>
         </is>
       </c>
       <c r="B995" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Title: Half-Day River Tubing Experience on the San Marcos River from Austin</t>
+          <t>Title: Best of Austin Tour with State Capitol and Mt. Bonnell</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15442,7 +15442,7 @@
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>TotalReviews: 67</t>
+          <t>TotalReviews: 18</t>
         </is>
       </c>
       <c r="B997" t="inlineStr"/>
@@ -15457,7 +15457,7 @@
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B998" t="inlineStr"/>
@@ -15472,7 +15472,7 @@
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244340P1</t>
+          <t>PRODUCTCODE: 74447P2</t>
         </is>
       </c>
       <c r="B999" t="inlineStr"/>
@@ -15487,7 +15487,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>Summarized description: The Lake Austin cruise takes off from the Loop 360 Boat Ramp located below the southern end of Pennybacker Bridge over Lake Austin. The three-acre park is primarily used for lake access, but offers a grassy area for picnicking.</t>
+          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
         </is>
       </c>
       <c r="B1000" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Title: Small-Group Public BYOB Sunset Boat Tour on Lake Austin</t>
+          <t>Title: The Ultimate Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>TotalReviews: 65</t>
+          <t>TotalReviews: 14</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73370P4</t>
+          <t>PRODUCTCODE: 5920AUSTIN</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>Summarized description: 2 hour guided Segway tour showcases Austin's top destinations. Stop at Austin's newly built $125M DT public library w/ amazing 360º city views.</t>
+          <t>Summarized description: Stay on the bus for the whole route, or jump off and on at any of the six stops. The bus route starts at the Texas State Capitol three times a day at 2-hour intervals.</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Title: Capital of Texas Segway Tour</t>
+          <t>Title: Austin Hop-On Hop-Off Tour</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>TotalReviews: 63</t>
+          <t>TotalReviews: 12</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 291969P2</t>
+          <t>PRODUCTCODE: 380918P1</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>Summarized description: Sunset Bat Tour offers stunning views of the Downtown Austin Skyline. 1.5 million Mexican Free-Tailed bats emerge from the famous bat bridge.</t>
+          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Title: Guided Sunset Bat Kayak Tour in Austin</t>
+          <t>Title: Austin Half-day Sightseeing Tour</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>TotalReviews: 58</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['Wildlife Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P26</t>
+          <t>PRODUCTCODE: 74447P1</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
+          <t>Summarized description: Segway tour offers one-on-one rider training and a friendly orientation. North Austin has a lot to offer, and Segway tours are a great way to explore.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Title: Austin Small Group Night Tour with Famous Austin Bat Boat Cruise</t>
+          <t>Title: Keep Austin Weird Segway Tour</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 53</t>
+          <t>TotalReviews: 7</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P10</t>
+          <t>PRODUCTCODE: 6462P30</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: Segway Nation's 2 hour Historic Downtown Austin Segway tour is offered once daily. Tour explores many of Austin’s historic landmarks, brilliant modern skyscrapers, the Texas state capitol building, and other historic and interesting buildings throughout downtown.</t>
+          <t>Summarized description: Segway tour of Austin, Texas. 2 hour trip through the streets and walks of the city. Learn about trending hot-spots and views of Austin's architectural marvels.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Historic Segway Tour</t>
+          <t>Title: Afternoon in Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 45</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Modern Attractions']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 309417P1</t>
+          <t>PRODUCTCODE: 73370P5</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: The Ghosts of Austin is Austin's #1 All-Ages/Family-Friendly Ghost Tour. We've designed this tour to be entertaining for anyone ages 5-100. Your spooky adventure will begin with an introduction to Austin's haunted past.</t>
+          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Title: The Ghosts of Austin Walking Tour</t>
+          <t>Title: Austin's only 'South of the River' Segway Tour</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 43</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7812P126</t>
+          <t>PRODUCTCODE: 6462P35</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: On our Secret Food Tour: Austin, let your stomach lead you through the busy streets of Downtown Austin. You'll try numerous foods, from our famous BBQ brisket to banana-leaf-wrapped tamales that have remained virtually unchanged since 5000 B.C.</t>
+          <t>Summarized description: Tour guides are friendly and fun, the best in Austin. We talk about the history and growth of the city. We love teaching people how to ride Segways!</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Title: Austin Downtown Private Walking Food Tour With Secret Food Tours</t>
+          <t>Title: Keep Austin Weird Segway Tour</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 39</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 441526P2</t>
+          <t>PRODUCTCODE: 6462P7</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Two-hour tour includes stops on Congress Avenue, Natural Beauty and Texas Avenue. Tickets do not include food, just the experience of being in the city.</t>
+          <t>Summarized description:  Segway tour will include a bit of historical information about Austin. Includes a focus on the State Capitol of Texas, 6th Street, Congress Avenue, and much more.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Title: Famous Texas BBQ &amp; Food Tour in Austin</t>
+          <t>Title: Austin Early Bird Segway Tour</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 53526P5</t>
+          <t>PRODUCTCODE: 380918P6</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: This three-hour tour visits four of Austin’s awesome pubs. Drinks are not included in your ticket purchase. Each stop has various specials exclusive to the Pub Walk Austin tour.</t>
+          <t>Summarized description: This tour stops at multiple locations for photos, such as the Greeting From Austin Mural. This tour is excellent for small groups that wish to get the best Austin sightseeing experience possible.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Small Group Pub Walk Tour in Austin with Professional Guide</t>
+          <t>Title: Private Austin Sightseer Tour</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 31</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462BATSEG</t>
+          <t>PRODUCTCODE: 51066P2</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tours of Austin are a great way to explore the city. Take a Segway tour of the city and stop for dinner along the way.</t>
+          <t>Summarized description: Glance of Austin City Tour is a 3-hour tour of downtown Austin. Take an open-air electric shuttle from your hotel/accommodation to the tour site.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title: Bat Bridge Segway Tour</t>
+          <t>Title: Glance of Austin City Tour</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 29</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5682P16</t>
+          <t>PRODUCTCODE: 324527P1</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: Nation Tour’s famous Capital City E-Scooter Tour begins on the West side of Austin. After cruising through downtown, your E- scooter adventure arrives at Lady Bird Lake.</t>
+          <t>Summarized description: Enjoy a personalized Tour of Austin and surrounding Hill Country with up to 14 guests. We have some great spots we know you'll love or we can plan a unique trip just for you. Great for a bachelor/ettes party’s or can be a site seeing family trip!</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: E-Scooter Tour of Austin</t>
+          <t>Title: Personalized Tour of Austin and Surrounding Hill Country</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P2</t>
+          <t>PRODUCTCODE: 19328P1</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: BikeTexas offers a more relaxed style with 2 food stops along the way. The best part is we get to ride e-bikes and see Austin's local scene at the same time.</t>
+          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Foodie Tour </t>
+          <t>Title: Complete Austin Experience City Tour</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 27</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 383052P2</t>
+          <t>PRODUCTCODE: 380918P2</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Austin's best breweries while discovering the wonders of the new, most innovative craft breweries to join the Austin beer scene. Revel in beer knowledge, a beer-inspired meal, comfortable transportation, and lots of delicious beer! You drink, we drive!</t>
+          <t>Summarized description: Explore Austin on an easy-to-operate e-bike on this city overview tour. Your guide will take about five breaks at unique locations for a quick photo. Pass by over 20 points of interest as you learn fun stories about the city.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: 4-Hour Austin Signature Brewery Tour</t>
+          <t>Title: Best of Austin Ebike Tour</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 25</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 292187P1</t>
+          <t>PRODUCTCODE: 251967P1</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Your guide will take care of all your access and reservations needed for seamless access and attention at each location. You will learn a little about the city of Austin as well as about the building and history of each our speakeasies. Your local guide will also be able to recommend cocktail choices based your your specific pallet and taste.</t>
+          <t>Summarized description: Learn all about Austin’s rich history as we guide you through some of the most sought-after locations. With the availability to hop-on and hop-off you can take your time and explore the various districts of the city at your leisure.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: Austin Speakeasy Cocktail Tour</t>
+          <t>Title: 24-Hour Hop-On Hop-Off Blue Line Pass in Austin</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>TotalReviews: 23</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P17</t>
+          <t>PRODUCTCODE: 6462P29</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: Austin's official breakfast is the breakfast taco. Taste-testing your way through inventive tacos and to-die-for queso is a must. Cruise between locations in a comfortable air-conditioned Mercedes Sprinter van.</t>
+          <t>Summarized description: Your adventure will include you riding a Segway taking in historical information about Austin. You will also visit some amazing highlights of the city. The tour will end with a tour of some of Austin's most famous landmarks.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Title: Austin Breakfast Taco Tour</t>
+          <t>Title: Good Morning Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>TotalReviews: 21</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 51066P5</t>
+          <t>PRODUCTCODE: 74447P8</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: 3-hour tour includes stops at some of Austin's best restaurants. Shuttles are available from your hotel/accommodation or the Austin Visitor's Center.</t>
+          <t>Summarized description: Your ultimate Austin adventure consists of you riding a Segway and taking in historical information about Austin. Visit some amazing highlights and hotspots while on your Segway.</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Title: Food Is My Best Friend Tour in Austin</t>
+          <t>Title: Ultimate Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Dining Experiences']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 431425P2</t>
+          <t>PRODUCTCODE: 5682AUSCITY</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: 18+ adults-only, guided walking ghost tour highlights some of Austin's most haunted locations. We'll also tell tales of other things that go bump in the night from Austin's first serial killer to urban legends and even some cult activity.</t>
+          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title: Ha Ha Haunted Austin Walking Ghost Tour</t>
+          <t>Title: Austin Sightseeing Segway Tour</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7635P1</t>
+          <t>PRODUCTCODE: 87115P25</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: Taste your way through Austin’s exciting downtown area with this signature 3-hour walking food tour. Stroll down the corridors of San Jacinto and Congress with the ultimate mixture of culture, history, food and fun.</t>
+          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: San Jacinto Street Food and Walking Tour from Austin</t>
+          <t>Title: Guided Tour of Austin's Highlights</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Culinary Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10428P11</t>
+          <t>PRODUCTCODE: 187190P2</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: Art is quickly becoming as famous as music in Austin. In 2 hours you'll go all around the city discovering major murals, rare art installations, and so much more. Get your phone/camera ready, this tour shows you the most Instagram-able sites in Austin!</t>
+          <t>Summarized description: Learn about Austin's history and culture with commentary from your guide. Tour the Texas State Capitol and visit other interesting locations. Check out some food trucks and other off-the-beaten-path sites.</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Title: Downtown Austin Street Art Tour by Bus</t>
+          <t>Title: Best Signseeing of Austin</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P1</t>
+          <t>PRODUCTCODE: 24380P1626</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: See the heart of Austin through a locals eyes on some of the finest urban bike trails in the country. Stop at some of Austin’s most famous landmarks: Barton Springs, the Stevie Ray Vaughan Statue, the Congress Avenue “Bat Bridge,” and more.</t>
+          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: Austin E-Bike Tour</t>
+          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 43154P13</t>
+          <t>PRODUCTCODE: 87115P77</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: A 2.5-hour walking tour through historic Austin. Stop at a bar or two along the way, each housed in historic buildings with their own unique ghosts and stories.</t>
+          <t>Summarized description: Experience the Best of Austin on this exclusive and private 3.5-hour tour of the state capital of Texas. Enjoy the efficiency and exclusive benefit of having your very own private local expert and guide.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Title: Haunted Austin Booze and Boos Ghost Walking Tour</t>
+          <t>Title: Private Tour of Austin with State Capitol and Cruise</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Entertainment', 'Dining Experiences']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 134057P4</t>
+          <t>PRODUCTCODE: 187194P2</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: Our guides know where the best spots are and you will get to see a lot of Austin along the way. Let the guide know if there is a place you might have heard of and is on your bucket list to go to.</t>
+          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Austin E-Bike Brunch Tour </t>
+          <t>Title: City Tour: Austin Capitol By Segway</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 87115P27</t>
+          <t>PRODUCTCODE: 6462P4</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Summarized description: The Best of Austin Small Group Tour by See Sight Tours is a truly unique experience that showcases the best that Austin has to offer. With a maximum of only 7 guests per tour, you'll enjoy a personalized and intimate experience.</t>
+          <t>Summarized description: Glide alongside Austin's beautiful Lady Bird Lake on this 90-minute segway tour. You'll see locals jogging, some enthusiastic kayakers, and interesting birds.</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Title: Best of Austin Tour with State Capitol and Mt. Bonnell</t>
+          <t>Title: Lady Bird Lake Segway Tour in Austin</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 206329P1</t>
+          <t>PRODUCTCODE: 90519P8</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Summarized description: The Austin Electric Adventure Tour takes you on an electric mini-bike tour of the city. The tour will explore South Congress, The "Willie for President" Mural, and the "i love you so much" mural.</t>
+          <t>Summarized description: Discover everything that makes Austin the best and weirdest city in America from one of our local tour guides. We can start the day with a morning hike on the Greenbelt, eat breakfast tacos afterwards, enjoy Austin’s street art scene in the afternoon.</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Title: Austin Electric Minibike Adventure Tour</t>
+          <t>Title: Austin Private Tour</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>TotalReviews: 18</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Hiking', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 212799P2</t>
+          <t>PRODUCTCODE: 5682AUSHIS</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the history and culture of Austin as we walk through downtown. From the Capitol to the luxurious Driskill Hotel, this tour is great for visitors looking to learn more.</t>
+          <t>Summarized description: 2.5-hour Segway tour will take you to the city’s many historical sites, scenic locations and modern-day cultural hubs. Explore the trendy Warehouse District, pedestrian-friendly 2nd Street District and 6th Street, the heart of the live entertainment scene.</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Title: Tipster Pay-What-You-Want Downtown Austin Walking Tour</t>
+          <t>Title: Ultimate Austin Segway Tour: Historical Sights and Modern Highlights</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>TotalReviews: 16</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 259428P28</t>
+          <t>PRODUCTCODE: 356901P1</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Summarized description: Uncover the charm of Austin with this self-guided driving tour. Dive into the city’s history, filled with music legends, conflict, and a distinct Texan culture. Explore iconic cities like San Francisco and Los Angeles.</t>
+          <t>Summarized description: Austin has a lot of nicknames. You will find out what does it mean the motto “Keep Austin Weird” Led by a professional tour guide, you will immerse yourself in the history of Texas. Austin was chosen as the best place to live in America.</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Title: Austin Self-Guided Driving Audio Tour Guide</t>
+          <t>Title: The Best of Austin Private Walking Tour</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P2</t>
+          <t>PRODUCTCODE: 134057P6</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Summarized description: Meet at our store located at 10910 Domain Drive, #106, Austin, Texas 78701. One at a time, you get to stand on the Segway and learn how to operate the controls.</t>
+          <t>Summarized description: Austin is bursting with music during SXSW. Over 2,000 different acts performing at more than 300 official parties, clubs, and events. Take a BikeTexas tour to experience all the excitement of SXSW at a fraction of the cost.</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Title: The Ultimate Austin Segway Tour</t>
+          <t>Title: Austin SXSW E-Bike Tour</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>TotalReviews: 14</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 338027P1</t>
+          <t>PRODUCTCODE: 6462ELBIKE</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Summarized description: Vibe with Tribe on Austin’s first and only open air party bus. Two hour private tour for groups of up to 20 people. Handpicked routes that take you to the best locations in Austin.</t>
+          <t>Summarized description: Take a 2.5-hour ride through the city on an electric bike. See the Austin Convention Center, Driskill Hotel, and Texas State Capitol Building.</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Roofless Party Bus Tour in Downtown Austin </t>
+          <t>Title: Austin Electric Bike Tour</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 383052P1</t>
+          <t>PRODUCTCODE: 5682AUSDOWN</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Summarized description: All-inclusive Austin craft beer experience. Tour some of the most famous breweries in Austin. Revel in beer knowledge, a beer-inspired meal, comfortable transportation, and lots of delicious beer.</t>
+          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Title: Austin Original Half-Day Brewery Tour</t>
+          <t>Title: Downtown Austin Segway Tour</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 380918P1</t>
+          <t>PRODUCTCODE: 209615P221</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Summarized description: Summit Mount Bonnell is the highest point in Austin, Texas. This tour will provide a city overview highlighting South Congress, the Seaholm Eco District, and the gorgeous surrounding hill country.</t>
+          <t>Summarized description: Walk through Austin’s rich history, stunning architecture, and vibrant cultural scene. Stroll down historic avenues, marvel at architectural wonders, and immerse yourself in the local culture.</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Title: Austin Half-day Sightseeing Tour</t>
+          <t>Title: Austin Explorer: A Vibrant USA Heritage Walk</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 56929P1</t>
+          <t>PRODUCTCODE: 74447P11</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Summarized description: Walking brewery tour takes you from downtown Austin to three local breweries. All tours pick up and drop off at the Austin Visitor Center, and run for 4-5 hours.</t>
+          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Title: Small-Group Austin Craft Beer and Brewery Tour</t>
+          <t>Title: Segway Bat Tour in Austin</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 74447P5</t>
+          <t>PRODUCTCODE: 74447P3</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Summarized description: Tour Austin Weird in the best way possible. We have conducted safe tours for just over 14 years now in Austin, Texas. Meet us inside Paradise Smoothies at 10910 Domain Drive.</t>
+          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Title: Austin Segway Tour</t>
+          <t>Title: Segway Dinner Tour in Austin</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6462P30</t>
+          <t>PRODUCTCODE: 186429P1</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Summarized description: Segway tour of Austin, Texas. 2 hour trip through the streets and walks of the city. Learn about trending hot-spots and views of Austin's architectural marvels.</t>
+          <t>Summarized description: The 2.5-hour Segway tour is offered from March to October. See the Texas State Capitol Building, Lady Bird Lake, Austin Convention Center, and more. Hear the ghostly tales behind Austin's historic buildings and famous landmarks.</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Title: Afternoon in Austin Segway Tour</t>
+          <t>Title: Our Austin's Ghost and Bat By Segwaying</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Modern Attractions']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 57338P13</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17959,3306 +17959,6 @@
       <c r="H1164" t="inlineStr"/>
       <c r="I1164" t="inlineStr"/>
     </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is known as the 'Music Capital of the World' Stroll along the iconic and legendary venues that have launched countless musical careers. From blues to country, rock to indie, every step unveils the unique sounds and stories.</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
-      <c r="I1165" t="inlineStr"/>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>Title: The Downtown Austin Music History Walking Tour</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
-      <c r="H1166" t="inlineStr"/>
-      <c r="I1166" t="inlineStr"/>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>TotalReviews: 5</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
-      <c r="H1167" t="inlineStr"/>
-      <c r="I1167" t="inlineStr"/>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr"/>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr"/>
-      <c r="H1168" t="inlineStr"/>
-      <c r="I1168" t="inlineStr"/>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 54414P6</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr"/>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr"/>
-      <c r="H1169" t="inlineStr"/>
-      <c r="I1169" t="inlineStr"/>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>Summarized description: The AR Adventure Austin fantasy-based augmented-reality experience for 5-5,000 players. The AR technology allows you to immerse yourself in the city as you solve riddles and puzzles with the equipment we provide for you.</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr"/>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr"/>
-      <c r="H1170" t="inlineStr"/>
-      <c r="I1170" t="inlineStr"/>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>Title: Austin Haunted History Adventure</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr"/>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr"/>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr"/>
-      <c r="H1171" t="inlineStr"/>
-      <c r="I1171" t="inlineStr"/>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>TotalReviews: 5</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr"/>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr"/>
-      <c r="H1172" t="inlineStr"/>
-      <c r="I1172" t="inlineStr"/>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Category: ['Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-      <c r="H1173" t="inlineStr"/>
-      <c r="I1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 10428P9</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr"/>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr"/>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr"/>
-      <c r="H1174" t="inlineStr"/>
-      <c r="I1174" t="inlineStr"/>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>Summarized description: Murder Mystery Tours are a totally Austin-centric experience. Hit the streets, interview possible suspects and solve this murder. This 2 hour experience isn’t your corny, old, fake-blood murder.</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr"/>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
-      <c r="H1175" t="inlineStr"/>
-      <c r="I1175" t="inlineStr"/>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>Title: Murder Mystery Tour on Austin's 6th Street</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr"/>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr"/>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr"/>
-      <c r="H1176" t="inlineStr"/>
-      <c r="I1176" t="inlineStr"/>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr"/>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr"/>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr"/>
-      <c r="H1177" t="inlineStr"/>
-      <c r="I1177" t="inlineStr"/>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr"/>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr"/>
-      <c r="H1178" t="inlineStr"/>
-      <c r="I1178" t="inlineStr"/>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 73370P5</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr"/>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr"/>
-      <c r="H1179" t="inlineStr"/>
-      <c r="I1179" t="inlineStr"/>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>Summarized description: South Congress Ave. is Austin's boutique and vintage shopping mecca. Avoid parking hassles by using a Segway. Take a tour of Austin's most iconic mural.</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr"/>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr"/>
-      <c r="H1180" t="inlineStr"/>
-      <c r="I1180" t="inlineStr"/>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Title: Austin's only 'South of the River' Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr"/>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr"/>
-      <c r="H1181" t="inlineStr"/>
-      <c r="I1181" t="inlineStr"/>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr"/>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr"/>
-      <c r="H1182" t="inlineStr"/>
-      <c r="I1182" t="inlineStr"/>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Shopping and Fashion']</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-      <c r="H1183" t="inlineStr"/>
-      <c r="I1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P35</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr"/>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
-      <c r="H1184" t="inlineStr"/>
-      <c r="I1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Summarized description: Tour guides are friendly and fun, the best in Austin. We talk about the history and growth of the city. We love teaching people how to ride Segways!</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-      <c r="H1185" t="inlineStr"/>
-      <c r="I1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>Title: Keep Austin Weird Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
-      <c r="H1186" t="inlineStr"/>
-      <c r="I1186" t="inlineStr"/>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr"/>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr"/>
-      <c r="H1187" t="inlineStr"/>
-      <c r="I1187" t="inlineStr"/>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
-      <c r="H1188" t="inlineStr"/>
-      <c r="I1188" t="inlineStr"/>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P7</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-      <c r="H1189" t="inlineStr"/>
-      <c r="I1189" t="inlineStr"/>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>Summarized description:  Segway tour will include a bit of historical information about Austin. Includes a focus on the State Capitol of Texas, 6th Street, Congress Avenue, and much more.</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr"/>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr"/>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr"/>
-      <c r="G1190" t="inlineStr"/>
-      <c r="H1190" t="inlineStr"/>
-      <c r="I1190" t="inlineStr"/>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>Title: Austin Early Bird Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr"/>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr"/>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr"/>
-      <c r="G1191" t="inlineStr"/>
-      <c r="H1191" t="inlineStr"/>
-      <c r="I1191" t="inlineStr"/>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr"/>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr"/>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr"/>
-      <c r="H1192" t="inlineStr"/>
-      <c r="I1192" t="inlineStr"/>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr"/>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr"/>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr"/>
-      <c r="H1193" t="inlineStr"/>
-      <c r="I1193" t="inlineStr"/>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 19103P2</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr"/>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr"/>
-      <c r="H1194" t="inlineStr"/>
-      <c r="I1194" t="inlineStr"/>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>Summarized description: 2-hour guided Segway tour of downtown Austin. Ride past famous murals, graffiti, and other colorful oddities of downtown. Transportation to/from the departure point is not included.</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr"/>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr"/>
-      <c r="H1195" t="inlineStr"/>
-      <c r="I1195" t="inlineStr"/>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>Title: Austin Street Art Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr"/>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr"/>
-      <c r="H1196" t="inlineStr"/>
-      <c r="I1196" t="inlineStr"/>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>TotalReviews: 4</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr"/>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr"/>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr"/>
-      <c r="H1197" t="inlineStr"/>
-      <c r="I1197" t="inlineStr"/>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr"/>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr"/>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr"/>
-      <c r="H1198" t="inlineStr"/>
-      <c r="I1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6468KAYAK</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr"/>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr"/>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr"/>
-      <c r="H1199" t="inlineStr"/>
-      <c r="I1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is home to the largest urban colony of bats in North America. Kayak to Congress Ave Bridge from Lady Bird Lake. Small-group tour limited to 15 people.</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr"/>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr"/>
-      <c r="H1200" t="inlineStr"/>
-      <c r="I1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>Title: Bat Bridge Kayak Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr"/>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr"/>
-      <c r="H1201" t="inlineStr"/>
-      <c r="I1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr"/>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr"/>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr"/>
-      <c r="H1202" t="inlineStr"/>
-      <c r="I1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>Category: ['Water Sports']</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
-      <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 13625P1</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
-      <c r="H1204" t="inlineStr"/>
-      <c r="I1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>Summarized description: Urban / Natural combo bike tour of 7.5 miles. Get acquainted with Austin sights like the Congress Ave Bat Bridge, Texas Capitol, Shoal Creek hike-n-bike trail, Pfluger Ped/bike Bridge.</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
-      <c r="H1205" t="inlineStr"/>
-      <c r="I1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>Title: Check Out Austin: Capitol Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
-      <c r="H1206" t="inlineStr"/>
-      <c r="I1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr"/>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr"/>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr"/>
-      <c r="H1207" t="inlineStr"/>
-      <c r="I1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Hiking']</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-      <c r="H1208" t="inlineStr"/>
-      <c r="I1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 104585P1</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr"/>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr"/>
-      <c r="H1209" t="inlineStr"/>
-      <c r="I1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>Summarized description: This bike route has tons of great photo points, and hits most of Austin's must see sights. Some stops will include Barton springs, Stevie Ray Vaughn statue, our Capitol, and more. We will also have the opportunity to visit one of our oldest bbq joints.</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr"/>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr"/>
-      <c r="H1210" t="inlineStr"/>
-      <c r="I1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Title: Bike Austin &amp; Texas BBQ Tour</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
-      <c r="H1211" t="inlineStr"/>
-      <c r="I1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
-      <c r="H1212" t="inlineStr"/>
-      <c r="I1212" t="inlineStr"/>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr"/>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr"/>
-      <c r="H1213" t="inlineStr"/>
-      <c r="I1213" t="inlineStr"/>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 172361P2</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr"/>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr"/>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr"/>
-      <c r="H1214" t="inlineStr"/>
-      <c r="I1214" t="inlineStr"/>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>Summarized description: The Texas State Capitol grounds are comprised of about 22 acres in the heart of downtown Austin. Featuring 17 monuments, historic buildings and gorgeous and beautifully landscaped grounds, offer a great place to explore with a camera.</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr"/>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr"/>
-      <c r="H1215" t="inlineStr"/>
-      <c r="I1215" t="inlineStr"/>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Title: Austin Capital Photo Tour</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-      <c r="H1216" t="inlineStr"/>
-      <c r="I1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr"/>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr"/>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr"/>
-      <c r="H1217" t="inlineStr"/>
-      <c r="I1217" t="inlineStr"/>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr"/>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr"/>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr"/>
-      <c r="H1218" t="inlineStr"/>
-      <c r="I1218" t="inlineStr"/>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 209615P13</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr"/>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr"/>
-      <c r="H1219" t="inlineStr"/>
-      <c r="I1219" t="inlineStr"/>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>Summarized description: "Austin's Treasures: A Heroic Downtown Discovery Walk" is a journey through the soul of one of America's most vibrant cities. This tour transforms you into a city explorer, uncovering hidden gems and experiencing the essence of Austin’s spirit.</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr"/>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr"/>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr"/>
-      <c r="H1220" t="inlineStr"/>
-      <c r="I1220" t="inlineStr"/>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>Title: Austin’s Treasures: A Heroic Downtown Discovery Walk</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
-      <c r="H1221" t="inlineStr"/>
-      <c r="I1221" t="inlineStr"/>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>TotalReviews: 3</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr"/>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
-      <c r="H1222" t="inlineStr"/>
-      <c r="I1222" t="inlineStr"/>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr"/>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr"/>
-      <c r="H1223" t="inlineStr"/>
-      <c r="I1223" t="inlineStr"/>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5682AUSHAUNT</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr"/>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr"/>
-      <c r="H1224" t="inlineStr"/>
-      <c r="I1224" t="inlineStr"/>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is home to one of the world’s largest urban bat colonies that emerge at night. You’ll also see the still-standing Austin Moonlight Towers, built in the 19th century after a serial killer plagued the city. Throughout your tour, you'll hear entertaining stories and facts about Austin.</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr"/>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr"/>
-      <c r="H1225" t="inlineStr"/>
-      <c r="I1225" t="inlineStr"/>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>Title: Haunted Austin and Bat Bridge Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr"/>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr"/>
-      <c r="H1226" t="inlineStr"/>
-      <c r="I1226" t="inlineStr"/>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr"/>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr"/>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr"/>
-      <c r="H1227" t="inlineStr"/>
-      <c r="I1227" t="inlineStr"/>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr"/>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr"/>
-      <c r="H1228" t="inlineStr"/>
-      <c r="I1228" t="inlineStr"/>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 73370P2</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr"/>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
-      <c r="H1229" t="inlineStr"/>
-      <c r="I1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>Summarized description: Segways are the way to go in the hot Austin months leaving parking hassles behind. We'll take you to the back/local entrance to skip the line to get in. Entry into pools is included.</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr"/>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr"/>
-      <c r="H1230" t="inlineStr"/>
-      <c r="I1230" t="inlineStr"/>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>Title: Austin Parks and Rec Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr"/>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr"/>
-      <c r="H1231" t="inlineStr"/>
-      <c r="I1231" t="inlineStr"/>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr"/>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
-      <c r="H1232" t="inlineStr"/>
-      <c r="I1232" t="inlineStr"/>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr"/>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr"/>
-      <c r="H1233" t="inlineStr"/>
-      <c r="I1233" t="inlineStr"/>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P9</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr"/>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr"/>
-      <c r="H1234" t="inlineStr"/>
-      <c r="I1234" t="inlineStr"/>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a Segway tour of beautiful North Austin. Start with a professional and knowledgeable guide giving you a personal orientation. Then, get a guided tour of the history and culture that makes Austin unique.</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr"/>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr"/>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr"/>
-      <c r="H1235" t="inlineStr"/>
-      <c r="I1235" t="inlineStr"/>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>Title: Ultimate Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr"/>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr"/>
-      <c r="H1236" t="inlineStr"/>
-      <c r="I1236" t="inlineStr"/>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-      <c r="H1237" t="inlineStr"/>
-      <c r="I1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr"/>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr"/>
-      <c r="H1238" t="inlineStr"/>
-      <c r="I1238" t="inlineStr"/>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 178387P1</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr"/>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr"/>
-      <c r="H1239" t="inlineStr"/>
-      <c r="I1239" t="inlineStr"/>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>Summarized description: 3-hour partially-guided tour on Lake Austin with spectacular views. Take this time to tour the scenic lake or enter one of the infamous party coves.</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
-      <c r="H1240" t="inlineStr"/>
-      <c r="I1240" t="inlineStr"/>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Title: Cruise Austin's Beautiful Lakes</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr"/>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr"/>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr"/>
-      <c r="H1241" t="inlineStr"/>
-      <c r="I1241" t="inlineStr"/>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr"/>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr"/>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr"/>
-      <c r="H1242" t="inlineStr"/>
-      <c r="I1242" t="inlineStr"/>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Category: ['Water Sports', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr"/>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr"/>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr"/>
-      <c r="H1243" t="inlineStr"/>
-      <c r="I1243" t="inlineStr"/>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 380918P4</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr"/>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr"/>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr"/>
-      <c r="H1244" t="inlineStr"/>
-      <c r="I1244" t="inlineStr"/>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore some of the best known spots in South Austin as well as some lesser known or "hidden" gems. Expect foods such as smoked meat, tacos or Tex Mex, fried chicken, and a dessert, or speciality coffee. All food comes as a sharable plate and needs a of minimum of 2 passengers to operate.</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr"/>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr"/>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr"/>
-      <c r="H1245" t="inlineStr"/>
-      <c r="I1245" t="inlineStr"/>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Title: South Austin Food Tour</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr"/>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr"/>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr"/>
-      <c r="H1246" t="inlineStr"/>
-      <c r="I1246" t="inlineStr"/>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr"/>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr"/>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr"/>
-      <c r="H1247" t="inlineStr"/>
-      <c r="I1247" t="inlineStr"/>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr"/>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr"/>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr"/>
-      <c r="H1248" t="inlineStr"/>
-      <c r="I1248" t="inlineStr"/>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 19328P1</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr"/>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr"/>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr"/>
-      <c r="H1249" t="inlineStr"/>
-      <c r="I1249" t="inlineStr"/>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise through some of Austin’s funkiest neighborhoods including South Congress. From start to finish, this local tour will make sure you leave Austin feeling like a native.</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr"/>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr"/>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr"/>
-      <c r="H1250" t="inlineStr"/>
-      <c r="I1250" t="inlineStr"/>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>Title: Complete Austin Experience City Tour</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr"/>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr"/>
-      <c r="H1251" t="inlineStr"/>
-      <c r="I1251" t="inlineStr"/>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr"/>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr"/>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr"/>
-      <c r="H1252" t="inlineStr"/>
-      <c r="I1252" t="inlineStr"/>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr"/>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr"/>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr"/>
-      <c r="H1253" t="inlineStr"/>
-      <c r="I1253" t="inlineStr"/>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 380918P2</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-      <c r="H1254" t="inlineStr"/>
-      <c r="I1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore Austin on an easy-to-operate e-bike on this city overview tour. Your guide will take about five breaks at unique locations for a quick photo. Pass by over 20 points of interest as you learn fun stories about the city.</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr"/>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr"/>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr"/>
-      <c r="H1255" t="inlineStr"/>
-      <c r="I1255" t="inlineStr"/>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>Title: Best of Austin Ebike Tour</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr"/>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr"/>
-      <c r="H1256" t="inlineStr"/>
-      <c r="I1256" t="inlineStr"/>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>TotalReviews: 2</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr"/>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-      <c r="H1257" t="inlineStr"/>
-      <c r="I1257" t="inlineStr"/>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr"/>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr"/>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr"/>
-      <c r="G1258" t="inlineStr"/>
-      <c r="H1258" t="inlineStr"/>
-      <c r="I1258" t="inlineStr"/>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P7</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr"/>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr"/>
-      <c r="H1259" t="inlineStr"/>
-      <c r="I1259" t="inlineStr"/>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>Summarized description: 90 minute Segway Sightseeing tour of North Austin. One-on-one rider training and orientation. See all that downtown Austin has to offer.</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr"/>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr"/>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr"/>
-      <c r="G1260" t="inlineStr"/>
-      <c r="H1260" t="inlineStr"/>
-      <c r="I1260" t="inlineStr"/>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>Title: Austin Early Bird Segway Tour with a Local Guide</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr"/>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr"/>
-      <c r="G1261" t="inlineStr"/>
-      <c r="H1261" t="inlineStr"/>
-      <c r="I1261" t="inlineStr"/>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr"/>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr"/>
-      <c r="H1262" t="inlineStr"/>
-      <c r="I1262" t="inlineStr"/>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr"/>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr"/>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr"/>
-      <c r="H1263" t="inlineStr"/>
-      <c r="I1263" t="inlineStr"/>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P4</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr"/>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr"/>
-      <c r="H1264" t="inlineStr"/>
-      <c r="I1264" t="inlineStr"/>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>Summarized description: Ride through the downtown city streets on your Segway for 2.5 hours. Visit the Congress Avenue Bat Bridge at dusk. Enjoy the stories and secrets in Austin.</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr"/>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr"/>
-      <c r="H1265" t="inlineStr"/>
-      <c r="I1265" t="inlineStr"/>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>Title: Historic Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr"/>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr"/>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr"/>
-      <c r="H1266" t="inlineStr"/>
-      <c r="I1266" t="inlineStr"/>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr"/>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr"/>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr"/>
-      <c r="H1267" t="inlineStr"/>
-      <c r="I1267" t="inlineStr"/>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr"/>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr"/>
-      <c r="H1268" t="inlineStr"/>
-      <c r="I1268" t="inlineStr"/>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P29</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr"/>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr"/>
-      <c r="H1269" t="inlineStr"/>
-      <c r="I1269" t="inlineStr"/>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>Summarized description: Your adventure will include you riding a Segway taking in historical information about Austin. You will also visit some amazing highlights of the city. The tour will end with a tour of some of Austin's most famous landmarks.</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr"/>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr"/>
-      <c r="H1270" t="inlineStr"/>
-      <c r="I1270" t="inlineStr"/>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>Title: Good Morning Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr"/>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr"/>
-      <c r="H1271" t="inlineStr"/>
-      <c r="I1271" t="inlineStr"/>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr"/>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr"/>
-      <c r="H1272" t="inlineStr"/>
-      <c r="I1272" t="inlineStr"/>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr"/>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr"/>
-      <c r="H1273" t="inlineStr"/>
-      <c r="I1273" t="inlineStr"/>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5682AUSCITY</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr"/>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr"/>
-      <c r="H1274" t="inlineStr"/>
-      <c r="I1274" t="inlineStr"/>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>Summarized description: Cruise through Austin in style on this sightseeing Segway tour. Follow your guide down Congress Avenue and see several historical sites. You’ll also learn fun facts about the city.</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr"/>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr"/>
-      <c r="H1275" t="inlineStr"/>
-      <c r="I1275" t="inlineStr"/>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>Title: Austin Sightseeing Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr"/>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr"/>
-      <c r="H1276" t="inlineStr"/>
-      <c r="I1276" t="inlineStr"/>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-      <c r="H1277" t="inlineStr"/>
-      <c r="I1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
-      <c r="H1278" t="inlineStr"/>
-      <c r="I1278" t="inlineStr"/>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 16592P5</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr"/>
-      <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr"/>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr"/>
-      <c r="H1279" t="inlineStr"/>
-      <c r="I1279" t="inlineStr"/>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin has more than 250 live music venues and thousands of acts to fill them. Join a tour that explores the places that helped Austin make its name. Take in a local show and learn how the city evolved from the sleepy college town and capital of Texas.</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr"/>
-      <c r="I1280" t="inlineStr"/>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>Title: Austin-Music Bicycle Tour</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr"/>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr"/>
-      <c r="H1281" t="inlineStr"/>
-      <c r="I1281" t="inlineStr"/>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>TotalReviews: 1</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr"/>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
-      <c r="H1282" t="inlineStr"/>
-      <c r="I1282" t="inlineStr"/>
-    </row>
-    <row r="1283">
-      <c r="A1283" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Entertainment', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1283" t="inlineStr"/>
-      <c r="C1283" t="inlineStr"/>
-      <c r="D1283" t="inlineStr"/>
-      <c r="E1283" t="inlineStr"/>
-      <c r="F1283" t="inlineStr"/>
-      <c r="G1283" t="inlineStr"/>
-      <c r="H1283" t="inlineStr"/>
-      <c r="I1283" t="inlineStr"/>
-    </row>
-    <row r="1284">
-      <c r="A1284" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5663LAKE</t>
-        </is>
-      </c>
-      <c r="B1284" t="inlineStr"/>
-      <c r="C1284" t="inlineStr"/>
-      <c r="D1284" t="inlineStr"/>
-      <c r="E1284" t="inlineStr"/>
-      <c r="F1284" t="inlineStr"/>
-      <c r="G1284" t="inlineStr"/>
-      <c r="H1284" t="inlineStr"/>
-      <c r="I1284" t="inlineStr"/>
-    </row>
-    <row r="1285">
-      <c r="A1285" t="inlineStr">
-        <is>
-          <t>Summarized description: Electric bikes are a fun, comfortable, safe way to sightsee in Austin. Follow your guide to the lake’s main landmarks including Barton Springs and the Stevie Ray Vaughn Statue.</t>
-        </is>
-      </c>
-      <c r="B1285" t="inlineStr"/>
-      <c r="C1285" t="inlineStr"/>
-      <c r="D1285" t="inlineStr"/>
-      <c r="E1285" t="inlineStr"/>
-      <c r="F1285" t="inlineStr"/>
-      <c r="G1285" t="inlineStr"/>
-      <c r="H1285" t="inlineStr"/>
-      <c r="I1285" t="inlineStr"/>
-    </row>
-    <row r="1286">
-      <c r="A1286" t="inlineStr">
-        <is>
-          <t>Title: Electric Bike Tour of Lady Bird Lake in Austin</t>
-        </is>
-      </c>
-      <c r="B1286" t="inlineStr"/>
-      <c r="C1286" t="inlineStr"/>
-      <c r="D1286" t="inlineStr"/>
-      <c r="E1286" t="inlineStr"/>
-      <c r="F1286" t="inlineStr"/>
-      <c r="G1286" t="inlineStr"/>
-      <c r="H1286" t="inlineStr"/>
-      <c r="I1286" t="inlineStr"/>
-    </row>
-    <row r="1287">
-      <c r="A1287" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1287" t="inlineStr"/>
-      <c r="C1287" t="inlineStr"/>
-      <c r="D1287" t="inlineStr"/>
-      <c r="E1287" t="inlineStr"/>
-      <c r="F1287" t="inlineStr"/>
-      <c r="G1287" t="inlineStr"/>
-      <c r="H1287" t="inlineStr"/>
-      <c r="I1287" t="inlineStr"/>
-    </row>
-    <row r="1288">
-      <c r="A1288" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1288" t="inlineStr"/>
-      <c r="C1288" t="inlineStr"/>
-      <c r="D1288" t="inlineStr"/>
-      <c r="E1288" t="inlineStr"/>
-      <c r="F1288" t="inlineStr"/>
-      <c r="G1288" t="inlineStr"/>
-      <c r="H1288" t="inlineStr"/>
-      <c r="I1288" t="inlineStr"/>
-    </row>
-    <row r="1289">
-      <c r="A1289" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5663MUSIC</t>
-        </is>
-      </c>
-      <c r="B1289" t="inlineStr"/>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
-      <c r="G1289" t="inlineStr"/>
-      <c r="H1289" t="inlineStr"/>
-      <c r="I1289" t="inlineStr"/>
-    </row>
-    <row r="1290">
-      <c r="A1290" t="inlineStr">
-        <is>
-          <t>Summarized description: Follow a local musician around Austin to discover why this city’s touted as the ‘Live Music Capital of the World’ Ride past renowned music venues including the Continental Club and Victory Grill. Then, on a rooftop deck overlooking Lady Bird Lake and downtown Austin, you’ll be treated to a live musical performance while admiring a gorgeous sunset.</t>
-        </is>
-      </c>
-      <c r="B1290" t="inlineStr"/>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr"/>
-      <c r="I1290" t="inlineStr"/>
-    </row>
-    <row r="1291">
-      <c r="A1291" t="inlineStr">
-        <is>
-          <t>Title: Austin Live Music and Electric Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1291" t="inlineStr"/>
-      <c r="C1291" t="inlineStr"/>
-      <c r="D1291" t="inlineStr"/>
-      <c r="E1291" t="inlineStr"/>
-      <c r="F1291" t="inlineStr"/>
-      <c r="G1291" t="inlineStr"/>
-      <c r="H1291" t="inlineStr"/>
-      <c r="I1291" t="inlineStr"/>
-    </row>
-    <row r="1292">
-      <c r="A1292" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1292" t="inlineStr"/>
-      <c r="C1292" t="inlineStr"/>
-      <c r="D1292" t="inlineStr"/>
-      <c r="E1292" t="inlineStr"/>
-      <c r="F1292" t="inlineStr"/>
-      <c r="G1292" t="inlineStr"/>
-      <c r="H1292" t="inlineStr"/>
-      <c r="I1292" t="inlineStr"/>
-    </row>
-    <row r="1293">
-      <c r="A1293" t="inlineStr">
-        <is>
-          <t>Category: ['Performing Arts', 'City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1293" t="inlineStr"/>
-      <c r="C1293" t="inlineStr"/>
-      <c r="D1293" t="inlineStr"/>
-      <c r="E1293" t="inlineStr"/>
-      <c r="F1293" t="inlineStr"/>
-      <c r="G1293" t="inlineStr"/>
-      <c r="H1293" t="inlineStr"/>
-      <c r="I1293" t="inlineStr"/>
-    </row>
-    <row r="1294">
-      <c r="A1294" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P32</t>
-        </is>
-      </c>
-      <c r="B1294" t="inlineStr"/>
-      <c r="C1294" t="inlineStr"/>
-      <c r="D1294" t="inlineStr"/>
-      <c r="E1294" t="inlineStr"/>
-      <c r="F1294" t="inlineStr"/>
-      <c r="G1294" t="inlineStr"/>
-      <c r="H1294" t="inlineStr"/>
-      <c r="I1294" t="inlineStr"/>
-    </row>
-    <row r="1295">
-      <c r="A1295" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the darker side of Austin with our haunted tour. We begin with centuries of history at the State Capitol and Governor's Mansion. Then, continue to local haunts like the world-famous Driskill Hotel.</t>
-        </is>
-      </c>
-      <c r="B1295" t="inlineStr"/>
-      <c r="C1295" t="inlineStr"/>
-      <c r="D1295" t="inlineStr"/>
-      <c r="E1295" t="inlineStr"/>
-      <c r="F1295" t="inlineStr"/>
-      <c r="G1295" t="inlineStr"/>
-      <c r="H1295" t="inlineStr"/>
-      <c r="I1295" t="inlineStr"/>
-    </row>
-    <row r="1296">
-      <c r="A1296" t="inlineStr">
-        <is>
-          <t>Title: Haunted Austin History Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1296" t="inlineStr"/>
-      <c r="C1296" t="inlineStr"/>
-      <c r="D1296" t="inlineStr"/>
-      <c r="E1296" t="inlineStr"/>
-      <c r="F1296" t="inlineStr"/>
-      <c r="G1296" t="inlineStr"/>
-      <c r="H1296" t="inlineStr"/>
-      <c r="I1296" t="inlineStr"/>
-    </row>
-    <row r="1297">
-      <c r="A1297" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1297" t="inlineStr"/>
-      <c r="C1297" t="inlineStr"/>
-      <c r="D1297" t="inlineStr"/>
-      <c r="E1297" t="inlineStr"/>
-      <c r="F1297" t="inlineStr"/>
-      <c r="G1297" t="inlineStr"/>
-      <c r="H1297" t="inlineStr"/>
-      <c r="I1297" t="inlineStr"/>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1298" t="inlineStr"/>
-      <c r="C1298" t="inlineStr"/>
-      <c r="D1298" t="inlineStr"/>
-      <c r="E1298" t="inlineStr"/>
-      <c r="F1298" t="inlineStr"/>
-      <c r="G1298" t="inlineStr"/>
-      <c r="H1298" t="inlineStr"/>
-      <c r="I1298" t="inlineStr"/>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 87887P7</t>
-        </is>
-      </c>
-      <c r="B1299" t="inlineStr"/>
-      <c r="C1299" t="inlineStr"/>
-      <c r="D1299" t="inlineStr"/>
-      <c r="E1299" t="inlineStr"/>
-      <c r="F1299" t="inlineStr"/>
-      <c r="G1299" t="inlineStr"/>
-      <c r="H1299" t="inlineStr"/>
-      <c r="I1299" t="inlineStr"/>
-    </row>
-    <row r="1300">
-      <c r="A1300" t="inlineStr">
-        <is>
-          <t>Summarized description: Enjoy traveling to local Austinite favorites in a private limousine. Visit distilleries that show you how the process works behind the scenes. Get a sampling of those you think are your favorites.</t>
-        </is>
-      </c>
-      <c r="B1300" t="inlineStr"/>
-      <c r="C1300" t="inlineStr"/>
-      <c r="D1300" t="inlineStr"/>
-      <c r="E1300" t="inlineStr"/>
-      <c r="F1300" t="inlineStr"/>
-      <c r="G1300" t="inlineStr"/>
-      <c r="H1300" t="inlineStr"/>
-      <c r="I1300" t="inlineStr"/>
-    </row>
-    <row r="1301">
-      <c r="A1301" t="inlineStr">
-        <is>
-          <t>Title: Customizable Austin Distillery and Brewery Tour</t>
-        </is>
-      </c>
-      <c r="B1301" t="inlineStr"/>
-      <c r="C1301" t="inlineStr"/>
-      <c r="D1301" t="inlineStr"/>
-      <c r="E1301" t="inlineStr"/>
-      <c r="F1301" t="inlineStr"/>
-      <c r="G1301" t="inlineStr"/>
-      <c r="H1301" t="inlineStr"/>
-      <c r="I1301" t="inlineStr"/>
-    </row>
-    <row r="1302">
-      <c r="A1302" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1302" t="inlineStr"/>
-      <c r="C1302" t="inlineStr"/>
-      <c r="D1302" t="inlineStr"/>
-      <c r="E1302" t="inlineStr"/>
-      <c r="F1302" t="inlineStr"/>
-      <c r="G1302" t="inlineStr"/>
-      <c r="H1302" t="inlineStr"/>
-      <c r="I1302" t="inlineStr"/>
-    </row>
-    <row r="1303">
-      <c r="A1303" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings']</t>
-        </is>
-      </c>
-      <c r="B1303" t="inlineStr"/>
-      <c r="C1303" t="inlineStr"/>
-      <c r="D1303" t="inlineStr"/>
-      <c r="E1303" t="inlineStr"/>
-      <c r="F1303" t="inlineStr"/>
-      <c r="G1303" t="inlineStr"/>
-      <c r="H1303" t="inlineStr"/>
-      <c r="I1303" t="inlineStr"/>
-    </row>
-    <row r="1304">
-      <c r="A1304" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 75909P270</t>
-        </is>
-      </c>
-      <c r="B1304" t="inlineStr"/>
-      <c r="C1304" t="inlineStr"/>
-      <c r="D1304" t="inlineStr"/>
-      <c r="E1304" t="inlineStr"/>
-      <c r="F1304" t="inlineStr"/>
-      <c r="G1304" t="inlineStr"/>
-      <c r="H1304" t="inlineStr"/>
-      <c r="I1304" t="inlineStr"/>
-    </row>
-    <row r="1305">
-      <c r="A1305" t="inlineStr">
-        <is>
-          <t>Summarized description: Riding a bike is one of the best ways to see the specialness that is Austin. Let us share some fun quirky stories and fact about Austin over some mouth-watering food.</t>
-        </is>
-      </c>
-      <c r="B1305" t="inlineStr"/>
-      <c r="C1305" t="inlineStr"/>
-      <c r="D1305" t="inlineStr"/>
-      <c r="E1305" t="inlineStr"/>
-      <c r="F1305" t="inlineStr"/>
-      <c r="G1305" t="inlineStr"/>
-      <c r="H1305" t="inlineStr"/>
-      <c r="I1305" t="inlineStr"/>
-    </row>
-    <row r="1306">
-      <c r="A1306" t="inlineStr">
-        <is>
-          <t>Title: Austin Beer and Food Tour by Bike</t>
-        </is>
-      </c>
-      <c r="B1306" t="inlineStr"/>
-      <c r="C1306" t="inlineStr"/>
-      <c r="D1306" t="inlineStr"/>
-      <c r="E1306" t="inlineStr"/>
-      <c r="F1306" t="inlineStr"/>
-      <c r="G1306" t="inlineStr"/>
-      <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="inlineStr"/>
-    </row>
-    <row r="1307">
-      <c r="A1307" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1307" t="inlineStr"/>
-      <c r="C1307" t="inlineStr"/>
-      <c r="D1307" t="inlineStr"/>
-      <c r="E1307" t="inlineStr"/>
-      <c r="F1307" t="inlineStr"/>
-      <c r="G1307" t="inlineStr"/>
-      <c r="H1307" t="inlineStr"/>
-      <c r="I1307" t="inlineStr"/>
-    </row>
-    <row r="1308">
-      <c r="A1308" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours', 'Dining Experiences']</t>
-        </is>
-      </c>
-      <c r="B1308" t="inlineStr"/>
-      <c r="C1308" t="inlineStr"/>
-      <c r="D1308" t="inlineStr"/>
-      <c r="E1308" t="inlineStr"/>
-      <c r="F1308" t="inlineStr"/>
-      <c r="G1308" t="inlineStr"/>
-      <c r="H1308" t="inlineStr"/>
-      <c r="I1308" t="inlineStr"/>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 87115P25</t>
-        </is>
-      </c>
-      <c r="B1309" t="inlineStr"/>
-      <c r="C1309" t="inlineStr"/>
-      <c r="D1309" t="inlineStr"/>
-      <c r="E1309" t="inlineStr"/>
-      <c r="F1309" t="inlineStr"/>
-      <c r="G1309" t="inlineStr"/>
-      <c r="H1309" t="inlineStr"/>
-      <c r="I1309" t="inlineStr"/>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>Summarized description: See Sight Tours are Austin’s best small group tours (max. 7 guests). Enjoy the top attractions and visitor experiences while avoiding long lines and wait times. All attraction admission fees are included along with complimentary hotel pick up and drop off.</t>
-        </is>
-      </c>
-      <c r="B1310" t="inlineStr"/>
-      <c r="C1310" t="inlineStr"/>
-      <c r="D1310" t="inlineStr"/>
-      <c r="E1310" t="inlineStr"/>
-      <c r="F1310" t="inlineStr"/>
-      <c r="G1310" t="inlineStr"/>
-      <c r="H1310" t="inlineStr"/>
-      <c r="I1310" t="inlineStr"/>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Title: Guided Tour of Austin's Highlights</t>
-        </is>
-      </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
-      <c r="G1311" t="inlineStr"/>
-      <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1312" t="inlineStr"/>
-      <c r="C1312" t="inlineStr"/>
-      <c r="D1312" t="inlineStr"/>
-      <c r="E1312" t="inlineStr"/>
-      <c r="F1312" t="inlineStr"/>
-      <c r="G1312" t="inlineStr"/>
-      <c r="H1312" t="inlineStr"/>
-      <c r="I1312" t="inlineStr"/>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1313" t="inlineStr"/>
-      <c r="C1313" t="inlineStr"/>
-      <c r="D1313" t="inlineStr"/>
-      <c r="E1313" t="inlineStr"/>
-      <c r="F1313" t="inlineStr"/>
-      <c r="G1313" t="inlineStr"/>
-      <c r="H1313" t="inlineStr"/>
-      <c r="I1313" t="inlineStr"/>
-    </row>
-    <row r="1314">
-      <c r="A1314" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24380P1626</t>
-        </is>
-      </c>
-      <c r="B1314" t="inlineStr"/>
-      <c r="C1314" t="inlineStr"/>
-      <c r="D1314" t="inlineStr"/>
-      <c r="E1314" t="inlineStr"/>
-      <c r="F1314" t="inlineStr"/>
-      <c r="G1314" t="inlineStr"/>
-      <c r="H1314" t="inlineStr"/>
-      <c r="I1314" t="inlineStr"/>
-    </row>
-    <row r="1315">
-      <c r="A1315" t="inlineStr">
-        <is>
-          <t>Summarized description: Dive into the origin of Austin as you see the city’s main landmarks. Your host has their own story to tell. Experience their Austin to the max based on their passions and expertise.</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
-      <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
-      <c r="H1315" t="inlineStr"/>
-      <c r="I1315" t="inlineStr"/>
-    </row>
-    <row r="1316">
-      <c r="A1316" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Title: Highlights and Hidden Gems of Austin Private Tour </t>
-        </is>
-      </c>
-      <c r="B1316" t="inlineStr"/>
-      <c r="C1316" t="inlineStr"/>
-      <c r="D1316" t="inlineStr"/>
-      <c r="E1316" t="inlineStr"/>
-      <c r="F1316" t="inlineStr"/>
-      <c r="G1316" t="inlineStr"/>
-      <c r="H1316" t="inlineStr"/>
-      <c r="I1316" t="inlineStr"/>
-    </row>
-    <row r="1317">
-      <c r="A1317" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1317" t="inlineStr"/>
-      <c r="C1317" t="inlineStr"/>
-      <c r="D1317" t="inlineStr"/>
-      <c r="E1317" t="inlineStr"/>
-      <c r="F1317" t="inlineStr"/>
-      <c r="G1317" t="inlineStr"/>
-      <c r="H1317" t="inlineStr"/>
-      <c r="I1317" t="inlineStr"/>
-    </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P25</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour guides take groups back deep into the history of how Austin, how it was formed and by which early settlers to Texas. Stop at food hall featuring six local vendors, each with one-of-a-kind concepts that are all distinctly Austin.</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Title: Historical Segway Food Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 311647P13</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>Summarized description: The only tour to give you a feast, not shared tastings. We begin with a walk as we examine and photograph (Very InstaWorthy) some of the Austin Weird that dates back to 1948.</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Title:  A Feast of the Weird Walking Tour in Austin *Single tickets</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Category: ['Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 187194P2</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>Summarized description: Learn about the history of Austin while rolling past the Texas State Capitol. Guided Segway training plus all the necessary equipment and photos are included. Dress in weather-appropriate clothes with flat, closed-toed shoes.</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Title: City Tour: Austin Capitol By Segway</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462P4</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>Summarized description: Glide alongside Austin's beautiful Lady Bird Lake on this 90-minute segway tour. You'll see locals jogging, some enthusiastic kayakers, and interesting birds.</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Title: Lady Bird Lake Segway Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 281487P40</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>Summarized description: Delve into the happening Austin streets and feel the uniquely Austin character of its one-of-a-kind downtown. Explore at your own pace feel Austin's distinct southern spirit and take in its charm.</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Title: Austin Scavenger Hunt Walking Tour and Game</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 35947P163</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>Summarized description: Your smartphone will act as your guide, while you solve clues and complete challenges around the city. Entry price is per team. Turn Austin into a game while partaking in a 2-hour Walking Adventure.</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Title: Austin Puzzling Adventure</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 214718P2</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>Summarized description: This service aspires to be Austin's Concierge service. Our tours run on your schedule. Our guides can help your group find the perfect taco stand at the perfect time.</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Title: Austin Self-Guided Electric Adventure Tour</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
-    <row r="1353">
-      <c r="A1353" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
-        </is>
-      </c>
-      <c r="B1353" t="inlineStr"/>
-      <c r="C1353" t="inlineStr"/>
-      <c r="D1353" t="inlineStr"/>
-      <c r="E1353" t="inlineStr"/>
-      <c r="F1353" t="inlineStr"/>
-      <c r="G1353" t="inlineStr"/>
-      <c r="H1353" t="inlineStr"/>
-      <c r="I1353" t="inlineStr"/>
-    </row>
-    <row r="1354">
-      <c r="A1354" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 172361P1</t>
-        </is>
-      </c>
-      <c r="B1354" t="inlineStr"/>
-      <c r="C1354" t="inlineStr"/>
-      <c r="D1354" t="inlineStr"/>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
-      <c r="G1354" t="inlineStr"/>
-      <c r="H1354" t="inlineStr"/>
-      <c r="I1354" t="inlineStr"/>
-    </row>
-    <row r="1355">
-      <c r="A1355" t="inlineStr">
-        <is>
-          <t>Summarized description: A tour with Mackphotography Atx is going to include a little bit of local lore, some current facts and ongoings in the city and central texas. Mack will focus on some of the best locations to photograph Austin and Central Texas bar none.</t>
-        </is>
-      </c>
-      <c r="B1355" t="inlineStr"/>
-      <c r="C1355" t="inlineStr"/>
-      <c r="D1355" t="inlineStr"/>
-      <c r="E1355" t="inlineStr"/>
-      <c r="F1355" t="inlineStr"/>
-      <c r="G1355" t="inlineStr"/>
-      <c r="H1355" t="inlineStr"/>
-      <c r="I1355" t="inlineStr"/>
-    </row>
-    <row r="1356">
-      <c r="A1356" t="inlineStr">
-        <is>
-          <t>Title: Downtown Austin Photo Tour</t>
-        </is>
-      </c>
-      <c r="B1356" t="inlineStr"/>
-      <c r="C1356" t="inlineStr"/>
-      <c r="D1356" t="inlineStr"/>
-      <c r="E1356" t="inlineStr"/>
-      <c r="F1356" t="inlineStr"/>
-      <c r="G1356" t="inlineStr"/>
-      <c r="H1356" t="inlineStr"/>
-      <c r="I1356" t="inlineStr"/>
-    </row>
-    <row r="1357">
-      <c r="A1357" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1357" t="inlineStr"/>
-      <c r="C1357" t="inlineStr"/>
-      <c r="D1357" t="inlineStr"/>
-      <c r="E1357" t="inlineStr"/>
-      <c r="F1357" t="inlineStr"/>
-      <c r="G1357" t="inlineStr"/>
-      <c r="H1357" t="inlineStr"/>
-      <c r="I1357" t="inlineStr"/>
-    </row>
-    <row r="1358">
-      <c r="A1358" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1358" t="inlineStr"/>
-      <c r="C1358" t="inlineStr"/>
-      <c r="D1358" t="inlineStr"/>
-      <c r="E1358" t="inlineStr"/>
-      <c r="F1358" t="inlineStr"/>
-      <c r="G1358" t="inlineStr"/>
-      <c r="H1358" t="inlineStr"/>
-      <c r="I1358" t="inlineStr"/>
-    </row>
-    <row r="1359">
-      <c r="A1359" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 134057P6</t>
-        </is>
-      </c>
-      <c r="B1359" t="inlineStr"/>
-      <c r="C1359" t="inlineStr"/>
-      <c r="D1359" t="inlineStr"/>
-      <c r="E1359" t="inlineStr"/>
-      <c r="F1359" t="inlineStr"/>
-      <c r="G1359" t="inlineStr"/>
-      <c r="H1359" t="inlineStr"/>
-      <c r="I1359" t="inlineStr"/>
-    </row>
-    <row r="1360">
-      <c r="A1360" t="inlineStr">
-        <is>
-          <t>Summarized description: Austin is bursting with music during SXSW. Over 2,000 different acts performing at more than 300 official parties, clubs, and events. Take a BikeTexas tour to experience all the excitement of SXSW at a fraction of the cost.</t>
-        </is>
-      </c>
-      <c r="B1360" t="inlineStr"/>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr"/>
-      <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr"/>
-      <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr"/>
-      <c r="I1360" t="inlineStr"/>
-    </row>
-    <row r="1361">
-      <c r="A1361" t="inlineStr">
-        <is>
-          <t>Title: Austin SXSW E-Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1361" t="inlineStr"/>
-      <c r="C1361" t="inlineStr"/>
-      <c r="D1361" t="inlineStr"/>
-      <c r="E1361" t="inlineStr"/>
-      <c r="F1361" t="inlineStr"/>
-      <c r="G1361" t="inlineStr"/>
-      <c r="H1361" t="inlineStr"/>
-      <c r="I1361" t="inlineStr"/>
-    </row>
-    <row r="1362">
-      <c r="A1362" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1362" t="inlineStr"/>
-      <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr"/>
-      <c r="E1362" t="inlineStr"/>
-      <c r="F1362" t="inlineStr"/>
-      <c r="G1362" t="inlineStr"/>
-      <c r="H1362" t="inlineStr"/>
-      <c r="I1362" t="inlineStr"/>
-    </row>
-    <row r="1363">
-      <c r="A1363" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1363" t="inlineStr"/>
-      <c r="C1363" t="inlineStr"/>
-      <c r="D1363" t="inlineStr"/>
-      <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr"/>
-      <c r="G1363" t="inlineStr"/>
-      <c r="H1363" t="inlineStr"/>
-      <c r="I1363" t="inlineStr"/>
-    </row>
-    <row r="1364">
-      <c r="A1364" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 6462ELBIKE</t>
-        </is>
-      </c>
-      <c r="B1364" t="inlineStr"/>
-      <c r="C1364" t="inlineStr"/>
-      <c r="D1364" t="inlineStr"/>
-      <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr"/>
-      <c r="G1364" t="inlineStr"/>
-      <c r="H1364" t="inlineStr"/>
-      <c r="I1364" t="inlineStr"/>
-    </row>
-    <row r="1365">
-      <c r="A1365" t="inlineStr">
-        <is>
-          <t>Summarized description: Take a 2.5-hour ride through the city on an electric bike. See the Austin Convention Center, Driskill Hotel, and Texas State Capitol Building.</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr"/>
-      <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr"/>
-      <c r="E1365" t="inlineStr"/>
-      <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr"/>
-      <c r="H1365" t="inlineStr"/>
-      <c r="I1365" t="inlineStr"/>
-    </row>
-    <row r="1366">
-      <c r="A1366" t="inlineStr">
-        <is>
-          <t>Title: Austin Electric Bike Tour</t>
-        </is>
-      </c>
-      <c r="B1366" t="inlineStr"/>
-      <c r="C1366" t="inlineStr"/>
-      <c r="D1366" t="inlineStr"/>
-      <c r="E1366" t="inlineStr"/>
-      <c r="F1366" t="inlineStr"/>
-      <c r="G1366" t="inlineStr"/>
-      <c r="H1366" t="inlineStr"/>
-      <c r="I1366" t="inlineStr"/>
-    </row>
-    <row r="1367">
-      <c r="A1367" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-    </row>
-    <row r="1368">
-      <c r="A1368" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
-      <c r="I1368" t="inlineStr"/>
-    </row>
-    <row r="1369">
-      <c r="A1369" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 5682AUSDOWN</t>
-        </is>
-      </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
-      <c r="I1369" t="inlineStr"/>
-    </row>
-    <row r="1370">
-      <c r="A1370" t="inlineStr">
-        <is>
-          <t>Summarized description: Explore the trendy Warehouse District, pedestrian-filled 2nd Street District and Lady Bird Lake set against the city skyline. You’ll hear interesting facts and stories about the sights you see.</t>
-        </is>
-      </c>
-      <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr"/>
-      <c r="I1370" t="inlineStr"/>
-    </row>
-    <row r="1371">
-      <c r="A1371" t="inlineStr">
-        <is>
-          <t>Title: Downtown Austin Segway Tour</t>
-        </is>
-      </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-    </row>
-    <row r="1372">
-      <c r="A1372" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-    </row>
-    <row r="1373">
-      <c r="A1373" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
-        </is>
-      </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-    </row>
-    <row r="1374">
-      <c r="A1374" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P11</t>
-        </is>
-      </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-    </row>
-    <row r="1375">
-      <c r="A1375" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour provides a unique experience to travelers and locals alike because of the use of Segway technology. Tour guide provides you with historical explanations, and an introduction to Texas culture.</t>
-        </is>
-      </c>
-      <c r="B1375" t="inlineStr"/>
-      <c r="C1375" t="inlineStr"/>
-      <c r="D1375" t="inlineStr"/>
-      <c r="E1375" t="inlineStr"/>
-      <c r="F1375" t="inlineStr"/>
-      <c r="G1375" t="inlineStr"/>
-      <c r="H1375" t="inlineStr"/>
-      <c r="I1375" t="inlineStr"/>
-    </row>
-    <row r="1376">
-      <c r="A1376" t="inlineStr">
-        <is>
-          <t>Title: Segway Bat Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-    </row>
-    <row r="1377">
-      <c r="A1377" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-    </row>
-    <row r="1378">
-      <c r="A1378" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-    </row>
-    <row r="1379">
-      <c r="A1379" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 74447P3</t>
-        </is>
-      </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-    </row>
-    <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>Summarized description: Segway tour includes orientation and one-on-one rider training. Glide around the Texas State Capitol Building and explore much of the downtown as the sun starts to set.</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-    </row>
-    <row r="1381">
-      <c r="A1381" t="inlineStr">
-        <is>
-          <t>Title: Segway Dinner Tour in Austin</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-    </row>
-    <row r="1382">
-      <c r="A1382" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours']</t>
-        </is>
-      </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
